--- a/data/api.xlsx
+++ b/data/api.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stinsonmathai/Documents/Stin-Work/Programming/Projects/work/tmo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38306742-AABD-EA46-8C2D-EBB86D3D27BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1541A0C2-2A87-AA45-8B73-44E9E5643A7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39860" yWindow="1200" windowWidth="38240" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40180" yWindow="1340" windowWidth="38240" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16389,8 +16389,8 @@
   <dimension ref="A1:G2779"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B404" sqref="B404"/>
+      <pane ySplit="1" topLeftCell="A603" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2371" sqref="B2371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17400,7 +17400,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>86</v>
       </c>
@@ -17469,7 +17469,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>86</v>
       </c>
@@ -17561,7 +17561,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>86</v>
       </c>
@@ -17765,7 +17765,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>86</v>
       </c>
@@ -17788,7 +17788,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>86</v>
       </c>
@@ -17880,7 +17880,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>86</v>
       </c>
@@ -17995,7 +17995,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>86</v>
       </c>
@@ -18064,7 +18064,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>86</v>
       </c>
@@ -18515,7 +18515,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>86</v>
       </c>
@@ -18837,7 +18837,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>86</v>
       </c>
@@ -19408,7 +19408,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>86</v>
       </c>
@@ -19431,7 +19431,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>86</v>
       </c>
@@ -19454,7 +19454,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>86</v>
       </c>
@@ -21176,7 +21176,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>86</v>
       </c>
@@ -21291,7 +21291,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>86</v>
       </c>
@@ -21406,7 +21406,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>86</v>
       </c>
@@ -21521,7 +21521,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>86</v>
       </c>
@@ -21636,7 +21636,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>86</v>
       </c>
@@ -21751,7 +21751,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>86</v>
       </c>
@@ -21866,7 +21866,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>86</v>
       </c>
@@ -21981,7 +21981,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>86</v>
       </c>
@@ -22119,7 +22119,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="160" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" ht="160" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>86</v>
       </c>
@@ -22257,7 +22257,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>86</v>
       </c>
@@ -22280,7 +22280,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>86</v>
       </c>
@@ -22303,7 +22303,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>86</v>
       </c>
@@ -22610,7 +22610,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>86</v>
       </c>
@@ -23415,7 +23415,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>86</v>
       </c>
@@ -23547,7 +23547,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>86</v>
       </c>
@@ -25389,7 +25389,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="404" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
         <v>86</v>
       </c>
@@ -26887,7 +26887,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="475" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
         <v>822</v>
       </c>
@@ -26907,7 +26907,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="476" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
         <v>822</v>
       </c>
@@ -26927,7 +26927,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="477" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
         <v>822</v>
       </c>
@@ -27311,7 +27311,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="498" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
         <v>822</v>
       </c>
@@ -27331,7 +27331,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="499" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
         <v>822</v>
       </c>
@@ -27622,7 +27622,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="514" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="2" t="s">
         <v>822</v>
       </c>
@@ -27992,7 +27992,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="531" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A531" s="2" t="s">
         <v>822</v>
       </c>
@@ -28000,7 +28000,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="532" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A532" s="2" t="s">
         <v>822</v>
       </c>
@@ -28060,7 +28060,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="535" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="2" t="s">
         <v>822</v>
       </c>
@@ -28382,7 +28382,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="558" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="2" t="s">
         <v>972</v>
       </c>
@@ -28450,7 +28450,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="562" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="2" t="s">
         <v>972</v>
       </c>
@@ -28473,7 +28473,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="563" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="2" t="s">
         <v>972</v>
       </c>
@@ -28481,7 +28481,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="564" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="2" t="s">
         <v>972</v>
       </c>
@@ -28504,7 +28504,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="565" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="2" t="s">
         <v>972</v>
       </c>
@@ -28512,7 +28512,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="566" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="2" t="s">
         <v>972</v>
       </c>
@@ -28520,7 +28520,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="567" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="2" t="s">
         <v>972</v>
       </c>
@@ -28579,7 +28579,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="571" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="2" t="s">
         <v>972</v>
       </c>
@@ -28587,7 +28587,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="572" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="2" t="s">
         <v>972</v>
       </c>
@@ -28595,7 +28595,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="573" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="2" t="s">
         <v>972</v>
       </c>
@@ -28603,7 +28603,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="574" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" s="2" t="s">
         <v>972</v>
       </c>
@@ -29171,7 +29171,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="603" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A603" s="2" t="s">
         <v>972</v>
       </c>
@@ -29629,7 +29629,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="625" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A625" s="2" t="s">
         <v>972</v>
       </c>
@@ -29649,7 +29649,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="626" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A626" s="2" t="s">
         <v>972</v>
       </c>
@@ -29669,7 +29669,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="627" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A627" s="2" t="s">
         <v>972</v>
       </c>
@@ -29689,7 +29689,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="628" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A628" s="2" t="s">
         <v>972</v>
       </c>
@@ -29709,7 +29709,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="629" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A629" s="2" t="s">
         <v>972</v>
       </c>
@@ -29729,7 +29729,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="630" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A630" s="2" t="s">
         <v>972</v>
       </c>
@@ -29920,7 +29920,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="640" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" s="2" t="s">
         <v>972</v>
       </c>
@@ -29968,7 +29968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="643" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" s="2" t="s">
         <v>972</v>
       </c>
@@ -29991,7 +29991,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="644" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" s="2" t="s">
         <v>972</v>
       </c>
@@ -30014,7 +30014,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="645" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" s="2" t="s">
         <v>972</v>
       </c>
@@ -30117,7 +30117,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="650" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A650" s="2" t="s">
         <v>972</v>
       </c>
@@ -30137,7 +30137,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="651" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A651" s="2" t="s">
         <v>972</v>
       </c>
@@ -30157,7 +30157,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="652" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A652" s="2" t="s">
         <v>972</v>
       </c>
@@ -30177,7 +30177,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="653" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A653" s="2" t="s">
         <v>972</v>
       </c>
@@ -30297,7 +30297,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="659" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" s="2" t="s">
         <v>972</v>
       </c>
@@ -30320,7 +30320,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="660" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" s="2" t="s">
         <v>972</v>
       </c>
@@ -30343,7 +30343,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="661" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" s="2" t="s">
         <v>972</v>
       </c>
@@ -30366,7 +30366,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="662" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" s="2" t="s">
         <v>972</v>
       </c>
@@ -30389,7 +30389,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="663" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" s="2" t="s">
         <v>972</v>
       </c>
@@ -30412,7 +30412,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="664" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664" s="2" t="s">
         <v>972</v>
       </c>
@@ -30495,7 +30495,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="668" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A668" s="2" t="s">
         <v>972</v>
       </c>
@@ -30555,7 +30555,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="671" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" s="2" t="s">
         <v>972</v>
       </c>
@@ -30611,7 +30611,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="675" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675" s="2" t="s">
         <v>972</v>
       </c>
@@ -30721,7 +30721,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="682" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" s="2" t="s">
         <v>972</v>
       </c>
@@ -30792,7 +30792,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="689" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A689" s="2" t="s">
         <v>972</v>
       </c>
@@ -31169,7 +31169,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="711" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" s="2" t="s">
         <v>1223</v>
       </c>
@@ -31192,7 +31192,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="712" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712" s="2" t="s">
         <v>1223</v>
       </c>
@@ -31215,7 +31215,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="713" spans="1:7" ht="320" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:7" ht="320" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713" s="2" t="s">
         <v>1223</v>
       </c>
@@ -31281,7 +31281,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="716" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A716" s="2" t="s">
         <v>1223</v>
       </c>
@@ -31301,7 +31301,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="717" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717" s="2" t="s">
         <v>1223</v>
       </c>
@@ -31324,7 +31324,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="718" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" s="2" t="s">
         <v>1223</v>
       </c>
@@ -31347,7 +31347,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="719" spans="1:7" ht="320" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:7" ht="320" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" s="2" t="s">
         <v>1223</v>
       </c>
@@ -31370,7 +31370,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="720" spans="1:7" ht="320" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:7" ht="320" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720" s="2" t="s">
         <v>1223</v>
       </c>
@@ -31516,7 +31516,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="727" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727" s="2" t="s">
         <v>1223</v>
       </c>
@@ -32307,7 +32307,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="770" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770" s="2" t="s">
         <v>1288</v>
       </c>
@@ -33024,7 +33024,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="809" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809" s="2" t="s">
         <v>1288</v>
       </c>
@@ -33283,7 +33283,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="823" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823" s="2" t="s">
         <v>1288</v>
       </c>
@@ -33598,7 +33598,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="841" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841" s="2" t="s">
         <v>1473</v>
       </c>
@@ -33793,7 +33793,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="853" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853" s="2" t="s">
         <v>1494</v>
       </c>
@@ -34080,7 +34080,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="872" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A872" s="2" t="s">
         <v>1519</v>
       </c>
@@ -34260,7 +34260,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="881" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A881" s="2" t="s">
         <v>1519</v>
       </c>
@@ -34308,7 +34308,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="884" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A884" s="2" t="s">
         <v>1519</v>
       </c>
@@ -35736,7 +35736,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="968" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A968" s="2" t="s">
         <v>1686</v>
       </c>
@@ -35787,7 +35787,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="971" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A971" s="2" t="s">
         <v>1686</v>
       </c>
@@ -36368,7 +36368,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="1005" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1005" s="2" t="s">
         <v>1743</v>
       </c>
@@ -36388,7 +36388,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="1006" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1006" s="2" t="s">
         <v>1743</v>
       </c>
@@ -36408,7 +36408,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="1007" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1007" s="2" t="s">
         <v>1743</v>
       </c>
@@ -37041,7 +37041,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="1043" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1043" s="2" t="s">
         <v>1816</v>
       </c>
@@ -37069,7 +37069,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="1045" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1045" s="2" t="s">
         <v>1816</v>
       </c>
@@ -37297,7 +37297,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="1057" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1057" s="2" t="s">
         <v>1830</v>
       </c>
@@ -37595,7 +37595,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="1074" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1074" s="2" t="s">
         <v>1871</v>
       </c>
@@ -38046,7 +38046,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="1097" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1097" s="2" t="s">
         <v>1871</v>
       </c>
@@ -38521,7 +38521,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="1123" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="1123" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1123" s="2" t="s">
         <v>1970</v>
       </c>
@@ -38541,7 +38541,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="1124" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1124" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1124" s="2" t="s">
         <v>1970</v>
       </c>
@@ -38641,7 +38641,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="1129" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="1129" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1129" s="2" t="s">
         <v>1976</v>
       </c>
@@ -39019,7 +39019,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="1150" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1150" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1150" s="2" t="s">
         <v>1993</v>
       </c>
@@ -39402,7 +39402,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="1172" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1172" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1172" s="2" t="s">
         <v>1993</v>
       </c>
@@ -39570,7 +39570,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="1181" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1181" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1181" s="2" t="s">
         <v>1993</v>
       </c>
@@ -39770,7 +39770,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="1191" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1191" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1191" s="2" t="s">
         <v>1993</v>
       </c>
@@ -39993,7 +39993,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="1202" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1202" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1202" s="2" t="s">
         <v>1993</v>
       </c>
@@ -41185,7 +41185,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="1267" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="1267" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1267" s="2" t="s">
         <v>2186</v>
       </c>
@@ -41667,7 +41667,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="1292" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="1292" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1292" s="2" t="s">
         <v>2186</v>
       </c>
@@ -42617,7 +42617,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="1341" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1341" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1341" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42625,7 +42625,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="1342" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1342" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A1342" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42645,7 +42645,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="1343" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1343" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A1343" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42665,7 +42665,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="1344" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1344" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A1344" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42685,7 +42685,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="1345" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1345" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A1345" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42705,7 +42705,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="1346" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1346" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A1346" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42725,7 +42725,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="1347" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1347" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A1347" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42745,7 +42745,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="1348" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1348" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A1348" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42765,7 +42765,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="1349" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1349" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A1349" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42785,7 +42785,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="1350" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1350" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A1350" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42805,7 +42805,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="1351" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1351" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A1351" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42825,7 +42825,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="1352" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1352" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A1352" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42845,7 +42845,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="1353" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1353" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A1353" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42865,7 +42865,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="1354" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1354" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A1354" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42885,7 +42885,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="1355" spans="1:7" ht="176" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1355" spans="1:7" ht="176" x14ac:dyDescent="0.2">
       <c r="A1355" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42908,7 +42908,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="1356" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1356" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A1356" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42928,7 +42928,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="1357" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1357" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A1357" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42948,7 +42948,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="1358" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1358" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A1358" s="2" t="s">
         <v>2361</v>
       </c>
@@ -43895,7 +43895,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="1413" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1413" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1413" s="2" t="s">
         <v>2482</v>
       </c>
@@ -43915,7 +43915,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="1414" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1414" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1414" s="2" t="s">
         <v>2482</v>
       </c>
@@ -43935,7 +43935,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="1415" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1415" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1415" s="2" t="s">
         <v>2482</v>
       </c>
@@ -43955,7 +43955,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="1416" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1416" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1416" s="2" t="s">
         <v>2482</v>
       </c>
@@ -43975,7 +43975,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="1417" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1417" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1417" s="2" t="s">
         <v>2482</v>
       </c>
@@ -43995,7 +43995,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="1418" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1418" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1418" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44015,7 +44015,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="1419" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1419" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1419" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44035,7 +44035,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="1420" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1420" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1420" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44055,7 +44055,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1421" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1421" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1421" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44075,7 +44075,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="1422" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1422" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1422" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44095,7 +44095,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="1423" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1423" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1423" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44115,7 +44115,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="1424" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1424" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1424" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44135,7 +44135,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="1425" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1425" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1425" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44155,7 +44155,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="1426" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1426" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1426" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44175,7 +44175,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="1427" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1427" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1427" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44195,7 +44195,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="1428" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1428" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1428" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44215,7 +44215,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="1429" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1429" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1429" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44235,7 +44235,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="1430" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1430" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1430" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44255,7 +44255,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="1431" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1431" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1431" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44275,7 +44275,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="1432" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1432" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1432" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44295,7 +44295,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="1433" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1433" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1433" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44358,7 +44358,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="1436" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1436" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1436" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44366,7 +44366,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="1437" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1437" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1437" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44374,7 +44374,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="1438" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1438" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1438" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44394,7 +44394,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="1439" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1439" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1439" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44414,7 +44414,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="1440" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1440" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1440" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44422,7 +44422,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="1441" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1441" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1441" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44442,7 +44442,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="1442" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1442" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1442" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44462,7 +44462,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="1443" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1443" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1443" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44482,7 +44482,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="1444" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1444" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1444" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44490,7 +44490,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="1445" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1445" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1445" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44510,7 +44510,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="1446" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1446" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1446" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44530,7 +44530,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="1447" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1447" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1447" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44606,7 +44606,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="1452" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="1452" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1452" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44646,7 +44646,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="1454" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1454" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1454" s="2" t="s">
         <v>2576</v>
       </c>
@@ -44666,7 +44666,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="1455" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1455" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A1455" s="2" t="s">
         <v>2576</v>
       </c>
@@ -44782,7 +44782,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="1462" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1462" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1462" s="2" t="s">
         <v>2584</v>
       </c>
@@ -45198,7 +45198,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="1487" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1487" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1487" s="2" t="s">
         <v>2618</v>
       </c>
@@ -45839,7 +45839,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="1521" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1521" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1521" s="2" t="s">
         <v>2678</v>
       </c>
@@ -45979,7 +45979,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="1528" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1528" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1528" s="2" t="s">
         <v>2678</v>
       </c>
@@ -46092,7 +46092,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="1535" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1535" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1535" s="2" t="s">
         <v>2714</v>
       </c>
@@ -46286,7 +46286,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="1545" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="1545" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1545" s="2" t="s">
         <v>2715</v>
       </c>
@@ -46309,7 +46309,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="1546" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="1546" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1546" s="2" t="s">
         <v>2715</v>
       </c>
@@ -46332,7 +46332,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="1547" spans="1:7" ht="320" x14ac:dyDescent="0.2">
+    <row r="1547" spans="1:7" ht="320" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1547" s="2" t="s">
         <v>2715</v>
       </c>
@@ -46375,7 +46375,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="1549" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1549" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1549" s="2" t="s">
         <v>2715</v>
       </c>
@@ -47230,7 +47230,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="1591" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1591" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A1591" s="2" t="s">
         <v>2715</v>
       </c>
@@ -47253,7 +47253,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="1592" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1592" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A1592" s="2" t="s">
         <v>2715</v>
       </c>
@@ -47276,7 +47276,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="1593" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1593" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1593" s="2" t="s">
         <v>2715</v>
       </c>
@@ -47296,7 +47296,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="1594" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1594" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1594" s="2" t="s">
         <v>2715</v>
       </c>
@@ -47316,7 +47316,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="1595" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1595" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A1595" s="2" t="s">
         <v>2715</v>
       </c>
@@ -47339,7 +47339,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="1596" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1596" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A1596" s="2" t="s">
         <v>2715</v>
       </c>
@@ -47531,7 +47531,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="1605" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1605" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1605" s="2" t="s">
         <v>2715</v>
       </c>
@@ -47547,7 +47547,7 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="1607" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1607" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1607" s="2" t="s">
         <v>2715</v>
       </c>
@@ -47626,7 +47626,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="1612" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1612" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1612" s="2" t="s">
         <v>2715</v>
       </c>
@@ -47791,7 +47791,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="1621" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="1621" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1621" s="2" t="s">
         <v>2877</v>
       </c>
@@ -47837,7 +47837,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="1623" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1623" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1623" s="2" t="s">
         <v>2877</v>
       </c>
@@ -48243,7 +48243,7 @@
         <v>2927</v>
       </c>
     </row>
-    <row r="1643" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1643" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A1643" s="2" t="s">
         <v>2877</v>
       </c>
@@ -48346,7 +48346,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="1648" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1648" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1648" s="2" t="s">
         <v>2877</v>
       </c>
@@ -48622,7 +48622,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="1663" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1663" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1663" s="2" t="s">
         <v>2947</v>
       </c>
@@ -48921,7 +48921,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="1679" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="1679" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1679" s="2" t="s">
         <v>2951</v>
       </c>
@@ -48987,7 +48987,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="1682" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1682" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1682" s="2" t="s">
         <v>2951</v>
       </c>
@@ -49170,7 +49170,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="1691" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1691" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1691" s="2" t="s">
         <v>2951</v>
       </c>
@@ -49575,7 +49575,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="1712" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1712" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1712" s="2" t="s">
         <v>3014</v>
       </c>
@@ -51218,7 +51218,7 @@
         <v>3182</v>
       </c>
     </row>
-    <row r="1803" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1803" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1803" s="2" t="s">
         <v>3152</v>
       </c>
@@ -51688,7 +51688,7 @@
         <v>3182</v>
       </c>
     </row>
-    <row r="1828" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="1828" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1828" s="2" t="s">
         <v>3194</v>
       </c>
@@ -52112,7 +52112,7 @@
         <v>3248</v>
       </c>
     </row>
-    <row r="1851" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="1851" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1851" s="2" t="s">
         <v>3229</v>
       </c>
@@ -53168,7 +53168,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="1905" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1905" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1905" s="2" t="s">
         <v>3229</v>
       </c>
@@ -53288,7 +53288,7 @@
         <v>3332</v>
       </c>
     </row>
-    <row r="1911" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="1911" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1911" s="2" t="s">
         <v>3229</v>
       </c>
@@ -53585,7 +53585,7 @@
         <v>3364</v>
       </c>
     </row>
-    <row r="1926" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1926" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1926" s="2" t="s">
         <v>3229</v>
       </c>
@@ -53732,7 +53732,7 @@
         <v>3235</v>
       </c>
     </row>
-    <row r="1935" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1935" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1935" s="2" t="s">
         <v>3229</v>
       </c>
@@ -53991,7 +53991,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="1952" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1952" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A1952" s="2" t="s">
         <v>3229</v>
       </c>
@@ -54964,7 +54964,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="2002" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2002" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2002" s="2" t="s">
         <v>3423</v>
       </c>
@@ -55647,7 +55647,7 @@
         <v>3564</v>
       </c>
     </row>
-    <row r="2039" spans="1:7" ht="335" x14ac:dyDescent="0.2">
+    <row r="2039" spans="1:7" ht="335" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2039" s="2" t="s">
         <v>3423</v>
       </c>
@@ -55800,7 +55800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2048" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2048" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2048" s="2" t="s">
         <v>3423</v>
       </c>
@@ -56201,7 +56201,7 @@
         <v>3619</v>
       </c>
     </row>
-    <row r="2070" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2070" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2070" s="2" t="s">
         <v>3423</v>
       </c>
@@ -56540,7 +56540,7 @@
         <v>3651</v>
       </c>
     </row>
-    <row r="2088" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2088" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2088" s="2" t="s">
         <v>3631</v>
       </c>
@@ -56658,7 +56658,7 @@
         <v>3657</v>
       </c>
     </row>
-    <row r="2096" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2096" spans="1:7" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2096" s="2" t="s">
         <v>3654</v>
       </c>
@@ -57513,7 +57513,7 @@
         <v>3744</v>
       </c>
     </row>
-    <row r="2147" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2147" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2147" s="2" t="s">
         <v>3728</v>
       </c>
@@ -58194,7 +58194,7 @@
         <v>3808</v>
       </c>
     </row>
-    <row r="2186" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2186" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2186" s="2" t="s">
         <v>3747</v>
       </c>
@@ -58262,7 +58262,7 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="2190" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="2190" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2190" s="2" t="s">
         <v>3747</v>
       </c>
@@ -58692,7 +58692,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="2213" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2213" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2213" s="2" t="s">
         <v>3747</v>
       </c>
@@ -59274,7 +59274,7 @@
         <v>3915</v>
       </c>
     </row>
-    <row r="2246" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="2246" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2246" s="2" t="s">
         <v>3861</v>
       </c>
@@ -59345,7 +59345,7 @@
         <v>3854</v>
       </c>
     </row>
-    <row r="2250" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2250" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2250" s="2" t="s">
         <v>3861</v>
       </c>
@@ -59964,7 +59964,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="2282" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2282" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2282" s="2" t="s">
         <v>3982</v>
       </c>
@@ -60134,7 +60134,7 @@
         <v>3998</v>
       </c>
     </row>
-    <row r="2292" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+    <row r="2292" spans="1:7" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2292" s="2" t="s">
         <v>3986</v>
       </c>
@@ -60157,7 +60157,7 @@
         <v>3998</v>
       </c>
     </row>
-    <row r="2293" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+    <row r="2293" spans="1:7" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2293" s="2" t="s">
         <v>3986</v>
       </c>
@@ -60480,7 +60480,7 @@
         <v>4030</v>
       </c>
     </row>
-    <row r="2312" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2312" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2312" s="2" t="s">
         <v>3986</v>
       </c>
@@ -60636,7 +60636,7 @@
         <v>4041</v>
       </c>
     </row>
-    <row r="2324" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="2324" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2324" s="2" t="s">
         <v>959</v>
       </c>
@@ -60659,7 +60659,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="2325" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="2325" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2325" s="2" t="s">
         <v>959</v>
       </c>
@@ -60682,7 +60682,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="2326" spans="1:7" ht="320" x14ac:dyDescent="0.2">
+    <row r="2326" spans="1:7" ht="320" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2326" s="2" t="s">
         <v>959</v>
       </c>
@@ -60905,7 +60905,7 @@
         <v>4065</v>
       </c>
     </row>
-    <row r="2337" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2337" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A2337" s="2" t="s">
         <v>959</v>
       </c>
@@ -60948,7 +60948,7 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="2339" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2339" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2339" s="2" t="s">
         <v>959</v>
       </c>
@@ -60968,7 +60968,7 @@
         <v>4072</v>
       </c>
     </row>
-    <row r="2340" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2340" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2340" s="2" t="s">
         <v>959</v>
       </c>
@@ -60988,7 +60988,7 @@
         <v>4074</v>
       </c>
     </row>
-    <row r="2341" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2341" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2341" s="2" t="s">
         <v>959</v>
       </c>
@@ -61008,7 +61008,7 @@
         <v>4076</v>
       </c>
     </row>
-    <row r="2342" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2342" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2342" s="2" t="s">
         <v>959</v>
       </c>
@@ -61088,7 +61088,7 @@
         <v>4084</v>
       </c>
     </row>
-    <row r="2346" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2346" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A2346" s="2" t="s">
         <v>959</v>
       </c>
@@ -61108,7 +61108,7 @@
         <v>4086</v>
       </c>
     </row>
-    <row r="2347" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2347" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A2347" s="2" t="s">
         <v>959</v>
       </c>
@@ -61128,7 +61128,7 @@
         <v>4088</v>
       </c>
     </row>
-    <row r="2348" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2348" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A2348" s="2" t="s">
         <v>959</v>
       </c>
@@ -61148,7 +61148,7 @@
         <v>4090</v>
       </c>
     </row>
-    <row r="2349" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2349" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2349" s="2" t="s">
         <v>959</v>
       </c>
@@ -61156,7 +61156,7 @@
         <v>4091</v>
       </c>
     </row>
-    <row r="2350" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2350" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2350" s="2" t="s">
         <v>959</v>
       </c>
@@ -61173,7 +61173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2351" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2351" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2351" s="2" t="s">
         <v>959</v>
       </c>
@@ -61193,7 +61193,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="2352" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2352" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2352" s="2" t="s">
         <v>959</v>
       </c>
@@ -61213,7 +61213,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="2353" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2353" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A2353" s="2" t="s">
         <v>959</v>
       </c>
@@ -61233,7 +61233,7 @@
         <v>4098</v>
       </c>
     </row>
-    <row r="2354" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2354" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A2354" s="2" t="s">
         <v>959</v>
       </c>
@@ -61253,7 +61253,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="2355" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2355" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2355" s="2" t="s">
         <v>959</v>
       </c>
@@ -61273,7 +61273,7 @@
         <v>4102</v>
       </c>
     </row>
-    <row r="2356" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2356" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2356" s="2" t="s">
         <v>959</v>
       </c>
@@ -61293,7 +61293,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="2357" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2357" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A2357" s="2" t="s">
         <v>959</v>
       </c>
@@ -61316,7 +61316,7 @@
         <v>4107</v>
       </c>
     </row>
-    <row r="2358" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2358" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2358" s="2" t="s">
         <v>959</v>
       </c>
@@ -61336,7 +61336,7 @@
         <v>4109</v>
       </c>
     </row>
-    <row r="2359" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2359" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2359" s="2" t="s">
         <v>959</v>
       </c>
@@ -61356,7 +61356,7 @@
         <v>4111</v>
       </c>
     </row>
-    <row r="2360" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2360" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2360" s="2" t="s">
         <v>959</v>
       </c>
@@ -61376,7 +61376,7 @@
         <v>4113</v>
       </c>
     </row>
-    <row r="2361" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2361" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2361" s="2" t="s">
         <v>959</v>
       </c>
@@ -61396,7 +61396,7 @@
         <v>4115</v>
       </c>
     </row>
-    <row r="2362" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2362" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2362" s="2" t="s">
         <v>959</v>
       </c>
@@ -61416,7 +61416,7 @@
         <v>4117</v>
       </c>
     </row>
-    <row r="2363" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2363" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A2363" s="2" t="s">
         <v>959</v>
       </c>
@@ -61436,7 +61436,7 @@
         <v>4119</v>
       </c>
     </row>
-    <row r="2364" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2364" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2364" s="2" t="s">
         <v>959</v>
       </c>
@@ -61469,7 +61469,7 @@
         <v>4122</v>
       </c>
     </row>
-    <row r="2367" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2367" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2367" s="2" t="s">
         <v>959</v>
       </c>
@@ -61477,7 +61477,7 @@
         <v>4123</v>
       </c>
     </row>
-    <row r="2368" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2368" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2368" s="2" t="s">
         <v>959</v>
       </c>
@@ -61494,7 +61494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2369" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2369" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2369" s="2" t="s">
         <v>959</v>
       </c>
@@ -61514,7 +61514,7 @@
         <v>4126</v>
       </c>
     </row>
-    <row r="2370" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2370" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2370" s="2" t="s">
         <v>959</v>
       </c>
@@ -61534,7 +61534,7 @@
         <v>4128</v>
       </c>
     </row>
-    <row r="2371" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2371" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2371" s="2" t="s">
         <v>959</v>
       </c>
@@ -61554,7 +61554,7 @@
         <v>4130</v>
       </c>
     </row>
-    <row r="2372" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2372" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A2372" s="2" t="s">
         <v>959</v>
       </c>
@@ -61577,7 +61577,7 @@
         <v>4133</v>
       </c>
     </row>
-    <row r="2373" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2373" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2373" s="2" t="s">
         <v>959</v>
       </c>
@@ -61597,7 +61597,7 @@
         <v>4135</v>
       </c>
     </row>
-    <row r="2374" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2374" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2374" s="2" t="s">
         <v>959</v>
       </c>
@@ -61617,7 +61617,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="2375" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2375" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2375" s="2" t="s">
         <v>959</v>
       </c>
@@ -61637,7 +61637,7 @@
         <v>4138</v>
       </c>
     </row>
-    <row r="2376" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2376" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A2376" s="2" t="s">
         <v>959</v>
       </c>
@@ -61657,7 +61657,7 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="2377" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2377" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2377" s="2" t="s">
         <v>959</v>
       </c>
@@ -61677,7 +61677,7 @@
         <v>4142</v>
       </c>
     </row>
-    <row r="2378" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2378" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2378" s="2" t="s">
         <v>959</v>
       </c>
@@ -61697,7 +61697,7 @@
         <v>4144</v>
       </c>
     </row>
-    <row r="2379" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2379" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A2379" s="2" t="s">
         <v>959</v>
       </c>
@@ -61717,7 +61717,7 @@
         <v>4146</v>
       </c>
     </row>
-    <row r="2380" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2380" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2380" s="2" t="s">
         <v>959</v>
       </c>
@@ -61757,7 +61757,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="2382" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2382" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2382" s="2" t="s">
         <v>959</v>
       </c>
@@ -61777,7 +61777,7 @@
         <v>4152</v>
       </c>
     </row>
-    <row r="2383" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2383" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2383" s="2" t="s">
         <v>959</v>
       </c>
@@ -61797,7 +61797,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="2384" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2384" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2384" s="2" t="s">
         <v>959</v>
       </c>
@@ -61817,7 +61817,7 @@
         <v>4156</v>
       </c>
     </row>
-    <row r="2385" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2385" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2385" s="2" t="s">
         <v>959</v>
       </c>
@@ -61857,7 +61857,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="2387" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2387" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2387" s="2" t="s">
         <v>959</v>
       </c>
@@ -61877,7 +61877,7 @@
         <v>4161</v>
       </c>
     </row>
-    <row r="2388" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2388" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2388" s="2" t="s">
         <v>959</v>
       </c>
@@ -61897,7 +61897,7 @@
         <v>4163</v>
       </c>
     </row>
-    <row r="2389" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2389" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2389" s="2" t="s">
         <v>959</v>
       </c>
@@ -61917,7 +61917,7 @@
         <v>4165</v>
       </c>
     </row>
-    <row r="2390" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2390" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A2390" s="2" t="s">
         <v>959</v>
       </c>
@@ -61940,7 +61940,7 @@
         <v>4168</v>
       </c>
     </row>
-    <row r="2391" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2391" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2391" s="2" t="s">
         <v>959</v>
       </c>
@@ -61948,7 +61948,7 @@
         <v>4169</v>
       </c>
     </row>
-    <row r="2392" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2392" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2392" s="2" t="s">
         <v>959</v>
       </c>
@@ -61973,7 +61973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2394" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2394" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2394" s="2" t="s">
         <v>959</v>
       </c>
@@ -61993,7 +61993,7 @@
         <v>4172</v>
       </c>
     </row>
-    <row r="2395" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2395" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2395" s="2" t="s">
         <v>959</v>
       </c>
@@ -62029,7 +62029,7 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="2398" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2398" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2398" s="2" t="s">
         <v>959</v>
       </c>
@@ -62334,7 +62334,7 @@
         <v>4209</v>
       </c>
     </row>
-    <row r="2414" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2414" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2414" s="2" t="s">
         <v>4176</v>
       </c>
@@ -62381,7 +62381,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="2418" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2418" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2418" s="2" t="s">
         <v>4176</v>
       </c>
@@ -62401,7 +62401,7 @@
         <v>4217</v>
       </c>
     </row>
-    <row r="2419" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="2419" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2419" s="2" t="s">
         <v>4176</v>
       </c>
@@ -62798,7 +62798,7 @@
         <v>4259</v>
       </c>
     </row>
-    <row r="2439" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2439" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2439" s="2" t="s">
         <v>4176</v>
       </c>
@@ -63436,7 +63436,7 @@
         <v>3364</v>
       </c>
     </row>
-    <row r="2476" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2476" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2476" s="2" t="s">
         <v>1195</v>
       </c>
@@ -64372,7 +64372,7 @@
         <v>4413</v>
       </c>
     </row>
-    <row r="2524" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2524" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2524" s="2" t="s">
         <v>1195</v>
       </c>
@@ -64840,7 +64840,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="2548" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2548" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A2548" s="2" t="s">
         <v>4438</v>
       </c>
@@ -65105,7 +65105,7 @@
         <v>4465</v>
       </c>
     </row>
-    <row r="2562" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2562" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2562" s="2" t="s">
         <v>4462</v>
       </c>
@@ -66086,7 +66086,7 @@
         <v>4551</v>
       </c>
     </row>
-    <row r="2613" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2613" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A2613" s="2" t="s">
         <v>4466</v>
       </c>
@@ -66241,7 +66241,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="2620" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2620" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A2620" s="2" t="s">
         <v>4466</v>
       </c>
@@ -66352,7 +66352,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="2626" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2626" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2626" s="2" t="s">
         <v>4561</v>
       </c>
@@ -66470,7 +66470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2634" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2634" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2634" s="2" t="s">
         <v>1197</v>
       </c>
@@ -66686,7 +66686,7 @@
         <v>4596</v>
       </c>
     </row>
-    <row r="2646" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2646" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2646" s="2" t="s">
         <v>1197</v>
       </c>
@@ -67021,7 +67021,7 @@
         <v>4632</v>
       </c>
     </row>
-    <row r="2668" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="2668" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2668" s="2" t="s">
         <v>4603</v>
       </c>
@@ -67169,7 +67169,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2676" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2676" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2676" s="2" t="s">
         <v>4638</v>
       </c>
@@ -67220,7 +67220,7 @@
         <v>4651</v>
       </c>
     </row>
-    <row r="2679" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2679" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2679" s="2" t="s">
         <v>4645</v>
       </c>
@@ -67521,7 +67521,7 @@
         <v>4680</v>
       </c>
     </row>
-    <row r="2696" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2696" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2696" s="2" t="s">
         <v>966</v>
       </c>
@@ -67609,7 +67609,7 @@
         <v>4689</v>
       </c>
     </row>
-    <row r="2701" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2701" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2701" s="2" t="s">
         <v>966</v>
       </c>
@@ -67902,7 +67902,7 @@
         <v>4710</v>
       </c>
     </row>
-    <row r="2717" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2717" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2717" s="2" t="s">
         <v>966</v>
       </c>
@@ -68256,7 +68256,7 @@
         <v>4726</v>
       </c>
     </row>
-    <row r="2735" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2735" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2735" s="2" t="s">
         <v>4716</v>
       </c>
@@ -68888,7 +68888,7 @@
         <v>4802</v>
       </c>
     </row>
-    <row r="2775" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2775" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2775" s="2" t="s">
         <v>4800</v>
       </c>
@@ -68968,101 +68968,181 @@
   <autoFilter ref="A1:G2779" xr:uid="{E6C39AF7-C976-4B10-BEB7-8A96010CD96F}">
     <filterColumn colId="1">
       <filters>
-        <filter val="AHSStatus_x000a_AHSStatus.HardwareEnabled"/>
-        <filter val="AHSStatus.SoftwareEnabled"/>
-        <filter val="AHSStatus.TemporaryHoldEnabled"/>
-        <filter val="AsrStatus (ASR Status)"/>
+        <filter val="ActualPowerLimits (array)"/>
+        <filter val="ActualPowerLimits[{item}].PowerLimitInWatts"/>
+        <filter val="ActualPowerLimits[{item}].ZoneNumber"/>
+        <filter val="AutoPowerOn (Automatic Power-On)"/>
         <filter val="BackupPowerSourceStatus"/>
-        <filter val="BatteryBackedUnits[{item}].BBUStatus_x000a_BatteryBackedUnits[{item}].BBUStatus.Health"/>
-        <filter val="BatteryBackedUnits[{item}].BBUStatus.HealthRollup"/>
-        <filter val="BatteryBackedUnits[{item}].BBUStatus.State"/>
-        <filter val="Cache[{item}].Status"/>
-        <filter val="CacheModuleStatus_x000a_CacheModuleStatus.Health"/>
-        <filter val="CacheModuleStatus.HealthRollup"/>
-        <filter val="CacheModuleStatus.State"/>
-        <filter val="CarrierAuthenticationStatus"/>
-        <filter val="Confirmation.Status"/>
-        <filter val="Controller.Status"/>
-        <filter val="ControllerBoard_x000a_ControllerBoard.Status"/>
-        <filter val="Controllers[{item}].ConfigurationStatus_x000a_Controllers[{item}].ConfigurationStatus.Detail (array)"/>
-        <filter val="Controllers[{item}].ConfigurationStatus.Summary"/>
-        <filter val="DiskDriveStatusReasons (array)"/>
-        <filter val="Fans[{item}].Status"/>
-        <filter val="FlowControlStatus"/>
-        <filter val="iLOSelfTestResults[{item}].Status"/>
-        <filter val="LinkStatus"/>
-        <filter val="LogicalDriveEncryptionDataKeysVolatileStatus"/>
-        <filter val="LogicalDriveStatusReasons (array)"/>
-        <filter val="Manager[{item}].Status"/>
-        <filter val="ManagerTrustedCertificates[{item}].Status"/>
-        <filter val="Members[{item}].Oem.Hpe.SubmitStatus"/>
-        <filter val="MemorySummary_x000a_MemorySummary.Status"/>
-        <filter val="NodeInfoList[{item}].WarningStatus"/>
-        <filter val="Oem.Hpe.AggregateHealthStatus_x000a_Oem.Hpe.AggregateHealthStatus.AgentlessManagementService"/>
-        <filter val="Oem.Hpe.AggregateHealthStatus.BiosOrHardwareHealth_x000a_Oem.Hpe.AggregateHealthStatus.BiosOrHardwareHealth.Status"/>
-        <filter val="Oem.Hpe.AggregateHealthStatus.FanRedundancy"/>
-        <filter val="Oem.Hpe.AggregateHealthStatus.Fans_x000a_Oem.Hpe.AggregateHealthStatus.Fans.Status"/>
-        <filter val="Oem.Hpe.AggregateHealthStatus.Memory_x000a_Oem.Hpe.AggregateHealthStatus.Memory.Status"/>
-        <filter val="Oem.Hpe.AggregateHealthStatus.Network_x000a_Oem.Hpe.AggregateHealthStatus.Network.Status"/>
+        <filter val="CalibrationData.ThrottlePeakPower_x000a_CalibrationData.ThrottlePeakPower.Percent_000"/>
+        <filter val="CalibrationData.ThrottlePeakPower.Percent_005"/>
+        <filter val="CalibrationData.ThrottlePeakPower.Percent_010"/>
+        <filter val="CalibrationData.ThrottlePeakPower.Percent_015"/>
+        <filter val="CalibrationData.ThrottlePeakPower.Percent_020"/>
+        <filter val="CalibrationData.ThrottlePeakPower.Percent_025"/>
+        <filter val="CalibrationData.ThrottlePeakPower.Percent_030"/>
+        <filter val="CalibrationData.ThrottlePeakPower.Percent_035"/>
+        <filter val="CalibrationData.ThrottlePeakPower.Percent_040"/>
+        <filter val="CalibrationData.ThrottlePeakPower.Percent_045"/>
+        <filter val="CalibrationData.ThrottlePeakPower.Percent_050"/>
+        <filter val="CalibrationData.ThrottlePeakPower.Percent_055"/>
+        <filter val="CalibrationData.ThrottlePeakPower.Percent_060"/>
+        <filter val="CalibrationData.ThrottlePeakPower.Percent_065"/>
+        <filter val="CalibrationData.ThrottlePeakPower.Percent_070"/>
+        <filter val="CalibrationData.ThrottlePeakPower.Percent_075"/>
+        <filter val="CalibrationData.ThrottlePeakPower.Percent_080"/>
+        <filter val="CalibrationData.ThrottlePeakPower.Percent_085"/>
+        <filter val="CalibrationData.ThrottlePeakPower.Percent_090"/>
+        <filter val="CalibrationData.ThrottlePeakPower.Percent_095"/>
+        <filter val="CalibrationData.ThrottlePeakPower.Percent_100"/>
+        <filter val="Characteristics.SupportsPowerManagementEventSignal"/>
+        <filter val="CollabPowerControl (Collaborative Power Control)"/>
+        <filter val="DynamicPowerCapping (Dynamic Power Capping Functionality)"/>
+        <filter val="EmbNicAspm (PCIe Power Management(ASPM))"/>
+        <filter val="EmbSas1Aspm (PCIe Power Management(ASPM))"/>
+        <filter val="EmbSata1Aspm (SATA Power Management(SALP))"/>
+        <filter val="EmbSata2Aspm (SATA Power Management(SALP))"/>
+        <filter val="FlexLom1Aspm (PCIe Power Management(ASPM))"/>
+        <filter val="HpeComputerSystemExt.PowerButton"/>
+        <filter val="HpeServerAccPowerCalibration.Calibrate"/>
+        <filter val="HpeServerAccPowerLimit.ConfigurePowerLimit"/>
+        <filter val="HpeServerAccPowerZone.ConfigureZone"/>
+        <filter val="IntelUpiPowerManagement (Intel UPI Link Power Management)"/>
+        <filter val="LicenseFeatures.PowerReg"/>
+        <filter val="MinProcIdlePkgState (Minimum Processor Idle Power Package C-State)"/>
+        <filter val="MinProcIdlePower (Minimum Processor Idle Power Core C-State)"/>
+        <filter val="MixedPowerSupplyReporting (Mixed Power Supply Reporting)"/>
         <filter val="Oem.Hpe.AggregateHealthStatus.PowerSupplies_x000a_Oem.Hpe.AggregateHealthStatus.PowerSupplies.PowerSuppliesMismatch"/>
         <filter val="Oem.Hpe.AggregateHealthStatus.PowerSupplies.Status"/>
         <filter val="Oem.Hpe.AggregateHealthStatus.PowerSupplyRedundancy"/>
-        <filter val="Oem.Hpe.AggregateHealthStatus.Processors_x000a_Oem.Hpe.AggregateHealthStatus.Processors.Status"/>
-        <filter val="Oem.Hpe.AggregateHealthStatus.SmartStorageBattery_x000a_Oem.Hpe.AggregateHealthStatus.SmartStorageBattery.Status"/>
-        <filter val="Oem.Hpe.AggregateHealthStatus.Storage_x000a_Oem.Hpe.AggregateHealthStatus.Storage.Status"/>
-        <filter val="Oem.Hpe.AggregateHealthStatus.Temperatures_x000a_Oem.Hpe.AggregateHealthStatus.Temperatures.Status"/>
-        <filter val="Oem.Hpe.AmpModeStatus"/>
-        <filter val="Oem.Hpe.ClearRestApiStatus"/>
-        <filter val="Oem.Hpe.ConfigStatus_x000a_Oem.Hpe.ConfigStatus.Populated"/>
-        <filter val="Oem.Hpe.ConfigStatus.State"/>
-        <filter val="Oem.Hpe.DIMMStatus"/>
-        <filter val="Oem.Hpe.DriveStatus_x000a_Oem.Hpe.DriveStatus.Health"/>
-        <filter val="Oem.Hpe.DriveStatus.HealthRollup"/>
-        <filter val="Oem.Hpe.DriveStatus.State"/>
-        <filter val="Oem.Hpe.PhysicalMonitorHealthStatusEnabled"/>
-        <filter val="Oem.Hpe.SerialCLIStatus"/>
-        <filter val="Oem.Hpe.ServerSignatureStatus"/>
-        <filter val="Oem.Hpe.SubmitStatus"/>
-        <filter val="Oem.Hpe.SystemROMAndiLOEraseComponentStatus_x000a_Oem.Hpe.SystemROMAndiLOEraseComponentStatus.BIOSSettingsEraseStatus"/>
-        <filter val="Oem.Hpe.SystemROMAndiLOEraseComponentStatus.iLOSettingsEraseStatus"/>
-        <filter val="Oem.Hpe.SystemROMAndiLOEraseStatus"/>
-        <filter val="Oem.Hpe.TemperatureStatus_x000a_Oem.Hpe.TemperatureStatus.Health"/>
-        <filter val="Oem.Hpe.TemperatureStatus.HealthRollup"/>
-        <filter val="Oem.Hpe.TemperatureStatus.State"/>
-        <filter val="Oem.Hpe.UserDataEraseComponentStatus_x000a_Oem.Hpe.UserDataEraseComponentStatus.NVDIMMEraseStatus"/>
-        <filter val="Oem.Hpe.UserDataEraseComponentStatus.NVMeDrivesEraseStatus"/>
-        <filter val="Oem.Hpe.UserDataEraseComponentStatus.SATADrivesEraseStatus"/>
-        <filter val="Oem.Hpe.UserDataEraseComponentStatus.SmartStorageEraseStatus"/>
-        <filter val="Oem.Hpe.UserDataEraseComponentStatus.TPMEraseStatus"/>
-        <filter val="Oem.Hpe.UserDataEraseStatus"/>
-        <filter val="Oem.Hpe.VirtualLinkStatus"/>
-        <filter val="Oem.Hpe.WearStatus"/>
-        <filter val="OverallSecurityStatus"/>
-        <filter val="OverallStatus"/>
-        <filter val="PhysicalPorts[{item}].LinkStatus"/>
-        <filter val="PhysicalPorts[{item}].Status"/>
+        <filter val="Oem.Hpe.BbuPowerSupply"/>
+        <filter val="Oem.Hpe.CurrentPowerOnTimeSeconds"/>
+        <filter val="Oem.Hpe.Firmware.PowerManagementController_x000a_Oem.Hpe.Firmware.PowerManagementController.Current_x000a_Oem.Hpe.Firmware.PowerManagementController.Current.VersionString"/>
+        <filter val="Oem.Hpe.Firmware.PowerManagementControllerBootloader_x000a_Oem.Hpe.Firmware.PowerManagementControllerBootloader.Current_x000a_Oem.Hpe.Firmware.PowerManagementControllerBootloader.Current.Family"/>
+        <filter val="Oem.Hpe.Firmware.PowerManagementControllerBootloader.Current.VersionString"/>
+        <filter val="Oem.Hpe.HasCpuPowerMetering"/>
+        <filter val="Oem.Hpe.HasDimmPowerMetering"/>
+        <filter val="Oem.Hpe.HasGpuPowerMetering"/>
+        <filter val="Oem.Hpe.HasPowerMetering"/>
+        <filter val="Oem.Hpe.PowerAlertMode_x000a_Oem.Hpe.PowerAlertMode.Activated"/>
+        <filter val="Oem.Hpe.PowerAlertMode.AlertPowerWatts"/>
+        <filter val="Oem.Hpe.PowerAllocationLimit"/>
+        <filter val="Oem.Hpe.PowerAutoOn"/>
+        <filter val="Oem.Hpe.PowerOnDelay"/>
+        <filter val="Oem.Hpe.PowerOnHours"/>
+        <filter val="Oem.Hpe.PowerOnMinutes"/>
+        <filter val="Oem.Hpe.PowerRegulatorMode"/>
+        <filter val="Oem.Hpe.PowerRegulatorModesSupported (array)"/>
+        <filter val="Oem.Hpe.Privileges.VirtualPowerAndResetPriv"/>
+        <filter val="Oem.Hpe.RelatedPowerBackupUnitBays (array)"/>
+        <filter val="Oem.Hpe.SNMPPowerThresholdAlert_x000a_Oem.Hpe.SNMPPowerThresholdAlert.DurationInMin"/>
+        <filter val="Oem.Hpe.SNMPPowerThresholdAlert.ThresholdWatts"/>
+        <filter val="Oem.Hpe.SNMPPowerThresholdAlert.Trigger"/>
+        <filter val="Oem.Hpe.SystemUsage.CPU0Power"/>
+        <filter val="Oem.Hpe.SystemUsage.CPU1Power"/>
+        <filter val="Oem.Hpe.SystemUsage.CPU2Power"/>
+        <filter val="Oem.Hpe.SystemUsage.CPU3Power"/>
+        <filter val="PciSlot1Aspm (PCIe Power Management(ASPM))"/>
+        <filter val="PciSlot2Aspm (PCIe Power Management(ASPM))"/>
+        <filter val="PciSlot3Aspm (PCIe Power Management(ASPM))"/>
+        <filter val="PciSlot4Aspm (PCIe Power Management(ASPM))"/>
+        <filter val="PciSlot5Aspm (PCIe Power Management(ASPM))"/>
+        <filter val="PciSlot6Aspm (PCIe Power Management(ASPM))"/>
+        <filter val="PciSlot7Aspm (PCIe Power Management(ASPM))"/>
+        <filter val="PciSlot8Aspm (PCIe Power Management(ASPM))"/>
+        <filter val="PersistentMemBackupPowerPolicy (Persistent Memory Backup Power Policy)"/>
+        <filter val="Power"/>
+        <filter val="PowerButton (Power Button Mode)"/>
+        <filter val="PowerControl (array)"/>
+        <filter val="PowerControl[{item}].@odata.id"/>
+        <filter val="PowerControl[{item}].MemberId"/>
+        <filter val="PowerControl[{item}].PowerAllocatedWatts"/>
+        <filter val="PowerControl[{item}].PowerAvailableWatts"/>
+        <filter val="PowerControl[{item}].PowerCapacityWatts"/>
+        <filter val="PowerControl[{item}].PowerConsumedWatts"/>
+        <filter val="PowerControl[{item}].PowerLimit_x000a_PowerControl[{item}].PowerLimit.CorrectionInMs"/>
+        <filter val="PowerControl[{item}].PowerLimit.LimitException"/>
+        <filter val="PowerControl[{item}].PowerLimit.LimitInWatts"/>
+        <filter val="PowerControl[{item}].PowerMetrics_x000a_PowerControl[{item}].PowerMetrics.AverageConsumedWatts"/>
+        <filter val="PowerControl[{item}].PowerMetrics.IntervalInMin"/>
+        <filter val="PowerControl[{item}].PowerMetrics.MaxConsumedWatts"/>
+        <filter val="PowerControl[{item}].PowerMetrics.MinConsumedWatts"/>
+        <filter val="PowerControl[{item}].PowerRequestedWatts"/>
+        <filter val="PowerControl[{item}].RelatedItem (array)"/>
         <filter val="PowerControl[{item}].Status"/>
+        <filter val="PowerDetail (array)"/>
+        <filter val="PowerDetail[{item}].AmbTemp"/>
+        <filter val="PowerDetail[{item}].Average"/>
+        <filter val="PowerDetail[{item}].Cap"/>
+        <filter val="PowerDetail[{item}].CpuAvgFreq"/>
+        <filter val="PowerDetail[{item}].CpuCapLim"/>
+        <filter val="PowerDetail[{item}].CpuMax"/>
+        <filter val="PowerDetail[{item}].CpuPwrSavLim"/>
+        <filter val="PowerDetail[{item}].CpuUtil"/>
+        <filter val="PowerDetail[{item}].CpuWatts"/>
+        <filter val="PowerDetail[{item}].DimmWatts"/>
+        <filter val="PowerDetail[{item}].GpuWatts"/>
+        <filter val="PowerDetail[{item}].Minimum"/>
+        <filter val="PowerDetail[{item}].Peak"/>
+        <filter val="PowerDetail[{item}].PrMode"/>
+        <filter val="PowerDetail[{item}].PunCap"/>
+        <filter val="PowerDetail[{item}].Time"/>
+        <filter val="PowerDetail[{item}].UnachCap"/>
+        <filter val="PowerLimitRanges (array)"/>
+        <filter val="PowerLimitRanges[{item}].MaximumPowerLimit"/>
+        <filter val="PowerLimitRanges[{item}].MinimumPowerLimit"/>
+        <filter val="PowerLimitRanges[{item}].ZoneNumber"/>
+        <filter val="PowerLimits (array)"/>
+        <filter val="PowerLimits[{item}].PowerLimitInWatts"/>
+        <filter val="PowerLimits[{item}].ZoneNumber"/>
+        <filter val="PowerModeAfterReboot"/>
+        <filter val="PowerModeConfigured"/>
+        <filter val="PowerModeWarningChangedDrive"/>
+        <filter val="PowerModeWarningChangedMode"/>
+        <filter val="PowerModeWarningReboot"/>
+        <filter val="PowerModeWarningTemperature"/>
+        <filter val="PowerOnDelay (Power-On Delay)"/>
+        <filter val="PowerOnHours"/>
+        <filter val="PowerRegulationEnabled"/>
+        <filter val="PowerRegulator (Power Regulator)"/>
+        <filter val="PowerRegulatorMode"/>
+        <filter val="PowerState"/>
+        <filter val="PowerSupplies (array)"/>
+        <filter val="PowerSupplies[{item}].@odata.id"/>
+        <filter val="PowerSupplies[{item}].FirmwareVersion"/>
+        <filter val="PowerSupplies[{item}].LastPowerOutputWatts"/>
+        <filter val="PowerSupplies[{item}].LineInputVoltage"/>
+        <filter val="PowerSupplies[{item}].LineInputVoltageType"/>
+        <filter val="PowerSupplies[{item}].Manufacturer"/>
+        <filter val="PowerSupplies[{item}].MemberId"/>
+        <filter val="PowerSupplies[{item}].Model"/>
+        <filter val="PowerSupplies[{item}].Oem.Hpe.AveragePowerOutputWatts"/>
+        <filter val="PowerSupplies[{item}].Oem.Hpe.BayNumber"/>
+        <filter val="PowerSupplies[{item}].Oem.Hpe.HotplugCapable"/>
+        <filter val="PowerSupplies[{item}].Oem.Hpe.iPDU_x000a_PowerSupplies[{item}].Oem.Hpe.iPDU.IPAddress"/>
         <filter val="PowerSupplies[{item}].Oem.Hpe.iPDU.iPDUStatus_x000a_PowerSupplies[{item}].Oem.Hpe.iPDU.iPDUStatus.State"/>
+        <filter val="PowerSupplies[{item}].Oem.Hpe.iPDU.MacAddress"/>
+        <filter val="PowerSupplies[{item}].Oem.Hpe.iPDU.Model"/>
+        <filter val="PowerSupplies[{item}].Oem.Hpe.iPDU.SerialNumber"/>
+        <filter val="PowerSupplies[{item}].Oem.Hpe.iPDUCapable"/>
+        <filter val="PowerSupplies[{item}].Oem.Hpe.MaxPowerOutputWatts"/>
+        <filter val="PowerSupplies[{item}].Oem.Hpe.Mismatched"/>
         <filter val="PowerSupplies[{item}].Oem.Hpe.PowerSupplyStatus_x000a_PowerSupplies[{item}].Oem.Hpe.PowerSupplyStatus.State"/>
+        <filter val="PowerSupplies[{item}].PartNumber"/>
+        <filter val="PowerSupplies[{item}].PowerCapacityWatts"/>
+        <filter val="PowerSupplies[{item}].PowerSupplyType"/>
+        <filter val="PowerSupplies[{item}].Redundancy"/>
+        <filter val="PowerSupplies[{item}].RelatedItem (array)"/>
+        <filter val="PowerSupplies[{item}].SerialNumber"/>
+        <filter val="PowerSupplies[{item}].SparePartNumber"/>
         <filter val="PowerSupplies[{item}].Status"/>
-        <filter val="ProcessorSummary.Status"/>
-        <filter val="Receiving.VirtualLinkStatusVector"/>
-        <filter val="SDCard.Status"/>
-        <filter val="SecureBootStatus (Secure Boot Status)"/>
-        <filter val="SecurityStatus"/>
-        <filter val="ServerConfigLockStatus (Server Configuration Lock Status)"/>
-        <filter val="ServerConfigurationLockStatus"/>
-        <filter val="SmartStorageBattery[{item}].Status"/>
-        <filter val="StaticRoutes[{item}].Status"/>
-        <filter val="Status"/>
-        <filter val="StorageControllers[{item}].Status"/>
-        <filter val="System[{item}].Status"/>
-        <filter val="TaskStatus"/>
-        <filter val="Temperatures[{item}].Status"/>
-        <filter val="TestResults[{item}].Status"/>
-        <filter val="Tpm20SoftwareInterfaceStatus (Current TPM 2.0 Software Interface Status)"/>
-        <filter val="Transmitting.VirtualLinkStatusVector"/>
-        <filter val="TrustedModules[{item}].Status"/>
+        <filter val="Privileges.VirtualPowerAndResetPriv"/>
+        <filter val="RedundantPowerSupply (Redundant Power Supply Mode)"/>
+        <filter val="SSOsettings.AdminPrivilege.VirtualPowerAndResetPriv"/>
+        <filter val="SSOsettings.OperatorPrivilege.VirtualPowerAndResetPriv"/>
+        <filter val="SSOsettings.UserPrivilege.VirtualPowerAndResetPriv"/>
+        <filter val="SupportedPowerModes (array)"/>
+        <filter val="SurvivalPowerMode"/>
+        <filter val="WriteCacheWithoutBackupPowerEnabled"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/api.xlsx
+++ b/data/api.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stinsonmathai/Documents/Stin-Work/Programming/Projects/work/tmo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1541A0C2-2A87-AA45-8B73-44E9E5643A7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8919DD45-8E38-8648-8201-64A5E8B638E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40180" yWindow="1340" windowWidth="38240" windowHeight="22360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40180" yWindow="1340" windowWidth="34220" windowHeight="22680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16389,8 +16389,8 @@
   <dimension ref="A1:G2779"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A603" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2371" sqref="B2371"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2770" sqref="B2770"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17146,7 +17146,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
@@ -17469,7 +17469,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>86</v>
       </c>
@@ -17561,7 +17561,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>86</v>
       </c>
@@ -17765,7 +17765,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>86</v>
       </c>
@@ -17788,7 +17788,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>86</v>
       </c>
@@ -17880,7 +17880,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>86</v>
       </c>
@@ -17995,7 +17995,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>86</v>
       </c>
@@ -18064,7 +18064,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>86</v>
       </c>
@@ -18515,7 +18515,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>86</v>
       </c>
@@ -18837,7 +18837,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>86</v>
       </c>
@@ -19408,7 +19408,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>86</v>
       </c>
@@ -19431,7 +19431,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>86</v>
       </c>
@@ -19454,7 +19454,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>86</v>
       </c>
@@ -21176,7 +21176,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>86</v>
       </c>
@@ -21291,7 +21291,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>86</v>
       </c>
@@ -21406,7 +21406,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>86</v>
       </c>
@@ -21521,7 +21521,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>86</v>
       </c>
@@ -21636,7 +21636,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>86</v>
       </c>
@@ -21751,7 +21751,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>86</v>
       </c>
@@ -21866,7 +21866,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>86</v>
       </c>
@@ -21981,7 +21981,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>86</v>
       </c>
@@ -22119,7 +22119,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>86</v>
       </c>
@@ -22257,7 +22257,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>86</v>
       </c>
@@ -22280,7 +22280,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>86</v>
       </c>
@@ -22303,7 +22303,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>86</v>
       </c>
@@ -22610,7 +22610,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>86</v>
       </c>
@@ -26887,7 +26887,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="475" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
         <v>822</v>
       </c>
@@ -26907,7 +26907,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="476" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
         <v>822</v>
       </c>
@@ -26927,7 +26927,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="477" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
         <v>822</v>
       </c>
@@ -27311,7 +27311,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="498" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
         <v>822</v>
       </c>
@@ -27331,7 +27331,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="499" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
         <v>822</v>
       </c>
@@ -27992,7 +27992,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="531" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="2" t="s">
         <v>822</v>
       </c>
@@ -28000,7 +28000,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="532" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="2" t="s">
         <v>822</v>
       </c>
@@ -28528,7 +28528,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="568" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="2" t="s">
         <v>972</v>
       </c>
@@ -28548,7 +28548,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="569" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="2" t="s">
         <v>972</v>
       </c>
@@ -28556,7 +28556,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="570" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="2" t="s">
         <v>972</v>
       </c>
@@ -29171,7 +29171,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="603" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="2" t="s">
         <v>972</v>
       </c>
@@ -29629,7 +29629,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="625" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" s="2" t="s">
         <v>972</v>
       </c>
@@ -29649,7 +29649,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="626" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" s="2" t="s">
         <v>972</v>
       </c>
@@ -29669,7 +29669,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="627" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" s="2" t="s">
         <v>972</v>
       </c>
@@ -29689,7 +29689,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="628" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" s="2" t="s">
         <v>972</v>
       </c>
@@ -29709,7 +29709,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="629" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" s="2" t="s">
         <v>972</v>
       </c>
@@ -29729,7 +29729,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="630" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" s="2" t="s">
         <v>972</v>
       </c>
@@ -29968,7 +29968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="643" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A643" s="2" t="s">
         <v>972</v>
       </c>
@@ -29991,7 +29991,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="644" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A644" s="2" t="s">
         <v>972</v>
       </c>
@@ -30014,7 +30014,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="645" spans="1:7" ht="144" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A645" s="2" t="s">
         <v>972</v>
       </c>
@@ -30117,7 +30117,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="650" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" s="2" t="s">
         <v>972</v>
       </c>
@@ -30137,7 +30137,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="651" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" s="2" t="s">
         <v>972</v>
       </c>
@@ -30157,7 +30157,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="652" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" s="2" t="s">
         <v>972</v>
       </c>
@@ -30177,7 +30177,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="653" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" s="2" t="s">
         <v>972</v>
       </c>
@@ -30495,7 +30495,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="668" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" s="2" t="s">
         <v>972</v>
       </c>
@@ -30792,7 +30792,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="689" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" s="2" t="s">
         <v>972</v>
       </c>
@@ -31281,7 +31281,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="716" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716" s="2" t="s">
         <v>1223</v>
       </c>
@@ -36608,7 +36608,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="1017" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1017" s="2" t="s">
         <v>1743</v>
       </c>
@@ -36616,7 +36616,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="1018" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1018" s="2" t="s">
         <v>1743</v>
       </c>
@@ -36684,7 +36684,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="1022" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1022" s="2" t="s">
         <v>1743</v>
       </c>
@@ -37297,7 +37297,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="1057" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1057" s="2" t="s">
         <v>1830</v>
       </c>
@@ -37317,7 +37317,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="1058" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1058" s="2" t="s">
         <v>1830</v>
       </c>
@@ -38046,7 +38046,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="1097" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1097" s="2" t="s">
         <v>1871</v>
       </c>
@@ -39189,7 +39189,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="1160" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1160" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1160" s="2" t="s">
         <v>1993</v>
       </c>
@@ -39570,7 +39570,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="1181" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1181" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1181" s="2" t="s">
         <v>1993</v>
       </c>
@@ -39590,7 +39590,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="1182" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1182" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1182" s="2" t="s">
         <v>1993</v>
       </c>
@@ -39770,7 +39770,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="1191" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1191" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1191" s="2" t="s">
         <v>1993</v>
       </c>
@@ -39790,7 +39790,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="1192" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1192" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1192" s="2" t="s">
         <v>1993</v>
       </c>
@@ -39993,7 +39993,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="1202" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1202" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1202" s="2" t="s">
         <v>1993</v>
       </c>
@@ -40013,7 +40013,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="1203" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1203" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A1203" s="2" t="s">
         <v>1993</v>
       </c>
@@ -40036,7 +40036,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="1204" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1204" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1204" s="2" t="s">
         <v>1993</v>
       </c>
@@ -40044,7 +40044,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="1205" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1205" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1205" s="2" t="s">
         <v>1993</v>
       </c>
@@ -40052,7 +40052,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="1206" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1206" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1206" s="2" t="s">
         <v>1993</v>
       </c>
@@ -40060,7 +40060,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="1207" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1207" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1207" s="2" t="s">
         <v>1993</v>
       </c>
@@ -42617,7 +42617,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="1341" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1341" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1341" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42625,7 +42625,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="1342" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="1342" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1342" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42645,7 +42645,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="1343" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="1343" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1343" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42665,7 +42665,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="1344" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="1344" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1344" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42685,7 +42685,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="1345" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="1345" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1345" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42705,7 +42705,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="1346" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="1346" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1346" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42725,7 +42725,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="1347" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="1347" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1347" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42745,7 +42745,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="1348" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="1348" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1348" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42765,7 +42765,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="1349" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="1349" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1349" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42785,7 +42785,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="1350" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="1350" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1350" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42805,7 +42805,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="1351" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="1351" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1351" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42825,7 +42825,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="1352" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="1352" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1352" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42845,7 +42845,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="1353" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="1353" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1353" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42865,7 +42865,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="1354" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="1354" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1354" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42885,7 +42885,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="1355" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+    <row r="1355" spans="1:7" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1355" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42908,7 +42908,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="1356" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="1356" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1356" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42928,7 +42928,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="1357" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="1357" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1357" s="2" t="s">
         <v>2361</v>
       </c>
@@ -42948,7 +42948,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="1358" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="1358" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1358" s="2" t="s">
         <v>2361</v>
       </c>
@@ -43895,7 +43895,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="1413" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1413" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1413" s="2" t="s">
         <v>2482</v>
       </c>
@@ -43915,7 +43915,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="1414" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1414" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1414" s="2" t="s">
         <v>2482</v>
       </c>
@@ -43935,7 +43935,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="1415" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1415" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1415" s="2" t="s">
         <v>2482</v>
       </c>
@@ -43955,7 +43955,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="1416" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1416" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1416" s="2" t="s">
         <v>2482</v>
       </c>
@@ -43975,7 +43975,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="1417" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1417" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1417" s="2" t="s">
         <v>2482</v>
       </c>
@@ -43995,7 +43995,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="1418" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1418" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1418" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44015,7 +44015,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="1419" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1419" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1419" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44035,7 +44035,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="1420" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1420" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1420" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44055,7 +44055,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1421" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1421" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1421" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44075,7 +44075,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="1422" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1422" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1422" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44095,7 +44095,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="1423" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1423" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1423" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44115,7 +44115,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="1424" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1424" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1424" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44135,7 +44135,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="1425" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1425" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1425" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44155,7 +44155,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="1426" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1426" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1426" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44175,7 +44175,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="1427" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1427" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1427" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44195,7 +44195,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="1428" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1428" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1428" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44215,7 +44215,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="1429" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1429" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1429" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44235,7 +44235,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="1430" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1430" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1430" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44255,7 +44255,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="1431" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1431" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1431" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44275,7 +44275,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="1432" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1432" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1432" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44295,7 +44295,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="1433" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1433" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1433" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44358,7 +44358,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="1436" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1436" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1436" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44366,7 +44366,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="1437" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1437" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1437" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44374,7 +44374,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="1438" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1438" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1438" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44394,7 +44394,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="1439" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1439" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1439" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44414,7 +44414,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="1440" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1440" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1440" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44422,7 +44422,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="1441" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1441" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1441" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44442,7 +44442,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="1442" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1442" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1442" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44462,7 +44462,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="1443" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1443" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1443" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44482,7 +44482,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="1444" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1444" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1444" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44490,7 +44490,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="1445" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1445" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1445" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44510,7 +44510,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="1446" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1446" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1446" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44530,7 +44530,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="1447" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1447" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1447" s="2" t="s">
         <v>2482</v>
       </c>
@@ -44646,7 +44646,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="1454" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1454" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1454" s="2" t="s">
         <v>2576</v>
       </c>
@@ -44666,7 +44666,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="1455" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="1455" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1455" s="2" t="s">
         <v>2576</v>
       </c>
@@ -44782,7 +44782,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="1462" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1462" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1462" s="2" t="s">
         <v>2584</v>
       </c>
@@ -45839,7 +45839,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="1521" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1521" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1521" s="2" t="s">
         <v>2678</v>
       </c>
@@ -46143,7 +46143,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="1538" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="1538" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1538" s="2" t="s">
         <v>2715</v>
       </c>
@@ -47230,7 +47230,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="1591" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="1591" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1591" s="2" t="s">
         <v>2715</v>
       </c>
@@ -47253,7 +47253,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="1592" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="1592" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1592" s="2" t="s">
         <v>2715</v>
       </c>
@@ -47276,7 +47276,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="1593" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1593" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1593" s="2" t="s">
         <v>2715</v>
       </c>
@@ -47296,7 +47296,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="1594" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1594" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1594" s="2" t="s">
         <v>2715</v>
       </c>
@@ -47316,7 +47316,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="1595" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="1595" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1595" s="2" t="s">
         <v>2715</v>
       </c>
@@ -47339,7 +47339,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="1596" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="1596" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1596" s="2" t="s">
         <v>2715</v>
       </c>
@@ -47547,7 +47547,7 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="1607" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1607" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1607" s="2" t="s">
         <v>2715</v>
       </c>
@@ -47626,7 +47626,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="1612" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="1612" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1612" s="2" t="s">
         <v>2715</v>
       </c>
@@ -48243,7 +48243,7 @@
         <v>2927</v>
       </c>
     </row>
-    <row r="1643" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="1643" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1643" s="2" t="s">
         <v>2877</v>
       </c>
@@ -52235,7 +52235,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="1857" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1857" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1857" s="2" t="s">
         <v>3229</v>
       </c>
@@ -53248,7 +53248,7 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="1909" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1909" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A1909" s="2" t="s">
         <v>3229</v>
       </c>
@@ -53454,7 +53454,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="1919" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1919" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1919" s="2" t="s">
         <v>3229</v>
       </c>
@@ -53474,7 +53474,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="1920" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1920" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1920" s="2" t="s">
         <v>3229</v>
       </c>
@@ -53494,7 +53494,7 @@
         <v>3354</v>
       </c>
     </row>
-    <row r="1921" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1921" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1921" s="2" t="s">
         <v>3229</v>
       </c>
@@ -53514,7 +53514,7 @@
         <v>3356</v>
       </c>
     </row>
-    <row r="1922" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1922" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A1922" s="2" t="s">
         <v>3229</v>
       </c>
@@ -53534,7 +53534,7 @@
         <v>3358</v>
       </c>
     </row>
-    <row r="1923" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1923" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1923" s="2" t="s">
         <v>3229</v>
       </c>
@@ -53542,7 +53542,7 @@
         <v>3359</v>
       </c>
     </row>
-    <row r="1924" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1924" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1924" s="2" t="s">
         <v>3229</v>
       </c>
@@ -53562,7 +53562,7 @@
         <v>3361</v>
       </c>
     </row>
-    <row r="1925" spans="1:7" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1925" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A1925" s="2" t="s">
         <v>3229</v>
       </c>
@@ -53585,7 +53585,7 @@
         <v>3364</v>
       </c>
     </row>
-    <row r="1926" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1926" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1926" s="2" t="s">
         <v>3229</v>
       </c>
@@ -53593,7 +53593,7 @@
         <v>3365</v>
       </c>
     </row>
-    <row r="1927" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1927" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A1927" s="2" t="s">
         <v>3229</v>
       </c>
@@ -53613,7 +53613,7 @@
         <v>3367</v>
       </c>
     </row>
-    <row r="1928" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1928" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1928" s="2" t="s">
         <v>3229</v>
       </c>
@@ -53633,7 +53633,7 @@
         <v>3369</v>
       </c>
     </row>
-    <row r="1929" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1929" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1929" s="2" t="s">
         <v>3229</v>
       </c>
@@ -53653,7 +53653,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="1930" spans="1:7" ht="112" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1930" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A1930" s="2" t="s">
         <v>3229</v>
       </c>
@@ -53771,7 +53771,7 @@
         <v>3382</v>
       </c>
     </row>
-    <row r="1938" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1938" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1938" s="2" t="s">
         <v>3229</v>
       </c>
@@ -53779,7 +53779,7 @@
         <v>3383</v>
       </c>
     </row>
-    <row r="1939" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1939" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1939" s="2" t="s">
         <v>3229</v>
       </c>
@@ -53787,7 +53787,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="1940" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1940" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1940" s="2" t="s">
         <v>3229</v>
       </c>
@@ -53795,7 +53795,7 @@
         <v>3385</v>
       </c>
     </row>
-    <row r="1941" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1941" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1941" s="2" t="s">
         <v>3229</v>
       </c>
@@ -53803,7 +53803,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="1942" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1942" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1942" s="2" t="s">
         <v>3229</v>
       </c>
@@ -53991,7 +53991,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="1952" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="1952" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1952" s="2" t="s">
         <v>3229</v>
       </c>
@@ -54011,7 +54011,7 @@
         <v>3408</v>
       </c>
     </row>
-    <row r="1953" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1953" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A1953" s="2" t="s">
         <v>3229</v>
       </c>
@@ -55012,7 +55012,7 @@
         <v>3501</v>
       </c>
     </row>
-    <row r="2005" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2005" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2005" s="2" t="s">
         <v>3423</v>
       </c>
@@ -55020,7 +55020,7 @@
         <v>3502</v>
       </c>
     </row>
-    <row r="2006" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2006" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A2006" s="2" t="s">
         <v>3423</v>
       </c>
@@ -55800,7 +55800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2048" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2048" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2048" s="2" t="s">
         <v>3423</v>
       </c>
@@ -60905,7 +60905,7 @@
         <v>4065</v>
       </c>
     </row>
-    <row r="2337" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="2337" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2337" s="2" t="s">
         <v>959</v>
       </c>
@@ -60948,7 +60948,7 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="2339" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2339" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2339" s="2" t="s">
         <v>959</v>
       </c>
@@ -60968,7 +60968,7 @@
         <v>4072</v>
       </c>
     </row>
-    <row r="2340" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2340" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2340" s="2" t="s">
         <v>959</v>
       </c>
@@ -60988,7 +60988,7 @@
         <v>4074</v>
       </c>
     </row>
-    <row r="2341" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2341" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2341" s="2" t="s">
         <v>959</v>
       </c>
@@ -61008,7 +61008,7 @@
         <v>4076</v>
       </c>
     </row>
-    <row r="2342" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2342" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2342" s="2" t="s">
         <v>959</v>
       </c>
@@ -61088,7 +61088,7 @@
         <v>4084</v>
       </c>
     </row>
-    <row r="2346" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="2346" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2346" s="2" t="s">
         <v>959</v>
       </c>
@@ -61108,7 +61108,7 @@
         <v>4086</v>
       </c>
     </row>
-    <row r="2347" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="2347" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2347" s="2" t="s">
         <v>959</v>
       </c>
@@ -61128,7 +61128,7 @@
         <v>4088</v>
       </c>
     </row>
-    <row r="2348" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="2348" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2348" s="2" t="s">
         <v>959</v>
       </c>
@@ -61148,7 +61148,7 @@
         <v>4090</v>
       </c>
     </row>
-    <row r="2349" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2349" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2349" s="2" t="s">
         <v>959</v>
       </c>
@@ -61156,7 +61156,7 @@
         <v>4091</v>
       </c>
     </row>
-    <row r="2350" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2350" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2350" s="2" t="s">
         <v>959</v>
       </c>
@@ -61173,7 +61173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2351" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2351" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2351" s="2" t="s">
         <v>959</v>
       </c>
@@ -61193,7 +61193,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="2352" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2352" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2352" s="2" t="s">
         <v>959</v>
       </c>
@@ -61213,7 +61213,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="2353" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="2353" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2353" s="2" t="s">
         <v>959</v>
       </c>
@@ -61233,7 +61233,7 @@
         <v>4098</v>
       </c>
     </row>
-    <row r="2354" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="2354" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2354" s="2" t="s">
         <v>959</v>
       </c>
@@ -61253,7 +61253,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="2355" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2355" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2355" s="2" t="s">
         <v>959</v>
       </c>
@@ -61273,7 +61273,7 @@
         <v>4102</v>
       </c>
     </row>
-    <row r="2356" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2356" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2356" s="2" t="s">
         <v>959</v>
       </c>
@@ -61293,7 +61293,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="2357" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="2357" spans="1:7" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2357" s="2" t="s">
         <v>959</v>
       </c>
@@ -61316,7 +61316,7 @@
         <v>4107</v>
       </c>
     </row>
-    <row r="2358" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2358" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2358" s="2" t="s">
         <v>959</v>
       </c>
@@ -61336,7 +61336,7 @@
         <v>4109</v>
       </c>
     </row>
-    <row r="2359" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2359" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2359" s="2" t="s">
         <v>959</v>
       </c>
@@ -61356,7 +61356,7 @@
         <v>4111</v>
       </c>
     </row>
-    <row r="2360" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2360" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2360" s="2" t="s">
         <v>959</v>
       </c>
@@ -61376,7 +61376,7 @@
         <v>4113</v>
       </c>
     </row>
-    <row r="2361" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2361" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2361" s="2" t="s">
         <v>959</v>
       </c>
@@ -61396,7 +61396,7 @@
         <v>4115</v>
       </c>
     </row>
-    <row r="2362" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2362" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2362" s="2" t="s">
         <v>959</v>
       </c>
@@ -61416,7 +61416,7 @@
         <v>4117</v>
       </c>
     </row>
-    <row r="2363" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="2363" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2363" s="2" t="s">
         <v>959</v>
       </c>
@@ -61436,7 +61436,7 @@
         <v>4119</v>
       </c>
     </row>
-    <row r="2364" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2364" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2364" s="2" t="s">
         <v>959</v>
       </c>
@@ -61461,7 +61461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2366" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2366" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2366" s="2" t="s">
         <v>959</v>
       </c>
@@ -61469,7 +61469,7 @@
         <v>4122</v>
       </c>
     </row>
-    <row r="2367" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2367" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2367" s="2" t="s">
         <v>959</v>
       </c>
@@ -61477,7 +61477,7 @@
         <v>4123</v>
       </c>
     </row>
-    <row r="2368" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2368" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2368" s="2" t="s">
         <v>959</v>
       </c>
@@ -61494,7 +61494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2369" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2369" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2369" s="2" t="s">
         <v>959</v>
       </c>
@@ -61514,7 +61514,7 @@
         <v>4126</v>
       </c>
     </row>
-    <row r="2370" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2370" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2370" s="2" t="s">
         <v>959</v>
       </c>
@@ -61534,7 +61534,7 @@
         <v>4128</v>
       </c>
     </row>
-    <row r="2371" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2371" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2371" s="2" t="s">
         <v>959</v>
       </c>
@@ -61554,7 +61554,7 @@
         <v>4130</v>
       </c>
     </row>
-    <row r="2372" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="2372" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2372" s="2" t="s">
         <v>959</v>
       </c>
@@ -61577,7 +61577,7 @@
         <v>4133</v>
       </c>
     </row>
-    <row r="2373" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2373" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2373" s="2" t="s">
         <v>959</v>
       </c>
@@ -61597,7 +61597,7 @@
         <v>4135</v>
       </c>
     </row>
-    <row r="2374" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2374" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2374" s="2" t="s">
         <v>959</v>
       </c>
@@ -61617,7 +61617,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="2375" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2375" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2375" s="2" t="s">
         <v>959</v>
       </c>
@@ -61637,7 +61637,7 @@
         <v>4138</v>
       </c>
     </row>
-    <row r="2376" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="2376" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2376" s="2" t="s">
         <v>959</v>
       </c>
@@ -61657,7 +61657,7 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="2377" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2377" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2377" s="2" t="s">
         <v>959</v>
       </c>
@@ -61677,7 +61677,7 @@
         <v>4142</v>
       </c>
     </row>
-    <row r="2378" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2378" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2378" s="2" t="s">
         <v>959</v>
       </c>
@@ -61697,7 +61697,7 @@
         <v>4144</v>
       </c>
     </row>
-    <row r="2379" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="2379" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2379" s="2" t="s">
         <v>959</v>
       </c>
@@ -61717,7 +61717,7 @@
         <v>4146</v>
       </c>
     </row>
-    <row r="2380" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2380" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2380" s="2" t="s">
         <v>959</v>
       </c>
@@ -61737,7 +61737,7 @@
         <v>4148</v>
       </c>
     </row>
-    <row r="2381" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2381" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2381" s="2" t="s">
         <v>959</v>
       </c>
@@ -61757,7 +61757,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="2382" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2382" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2382" s="2" t="s">
         <v>959</v>
       </c>
@@ -61777,7 +61777,7 @@
         <v>4152</v>
       </c>
     </row>
-    <row r="2383" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2383" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2383" s="2" t="s">
         <v>959</v>
       </c>
@@ -61797,7 +61797,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="2384" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2384" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2384" s="2" t="s">
         <v>959</v>
       </c>
@@ -61817,7 +61817,7 @@
         <v>4156</v>
       </c>
     </row>
-    <row r="2385" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2385" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2385" s="2" t="s">
         <v>959</v>
       </c>
@@ -61837,7 +61837,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="2386" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2386" spans="1:7" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2386" s="2" t="s">
         <v>959</v>
       </c>
@@ -61857,7 +61857,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="2387" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2387" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2387" s="2" t="s">
         <v>959</v>
       </c>
@@ -61877,7 +61877,7 @@
         <v>4161</v>
       </c>
     </row>
-    <row r="2388" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2388" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2388" s="2" t="s">
         <v>959</v>
       </c>
@@ -61897,7 +61897,7 @@
         <v>4163</v>
       </c>
     </row>
-    <row r="2389" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2389" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2389" s="2" t="s">
         <v>959</v>
       </c>
@@ -61917,7 +61917,7 @@
         <v>4165</v>
       </c>
     </row>
-    <row r="2390" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="2390" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2390" s="2" t="s">
         <v>959</v>
       </c>
@@ -61940,7 +61940,7 @@
         <v>4168</v>
       </c>
     </row>
-    <row r="2391" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2391" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2391" s="2" t="s">
         <v>959</v>
       </c>
@@ -61948,7 +61948,7 @@
         <v>4169</v>
       </c>
     </row>
-    <row r="2392" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2392" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2392" s="2" t="s">
         <v>959</v>
       </c>
@@ -61973,7 +61973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2394" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2394" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2394" s="2" t="s">
         <v>959</v>
       </c>
@@ -61993,7 +61993,7 @@
         <v>4172</v>
       </c>
     </row>
-    <row r="2395" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2395" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2395" s="2" t="s">
         <v>959</v>
       </c>
@@ -62013,7 +62013,7 @@
         <v>4174</v>
       </c>
     </row>
-    <row r="2396" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2396" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2396" s="2" t="s">
         <v>959</v>
       </c>
@@ -64840,7 +64840,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="2548" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="2548" spans="1:7" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2548" s="2" t="s">
         <v>4438</v>
       </c>
@@ -64860,7 +64860,7 @@
         <v>3408</v>
       </c>
     </row>
-    <row r="2549" spans="1:7" ht="64" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2549" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A2549" s="2" t="s">
         <v>4438</v>
       </c>
@@ -66086,7 +66086,7 @@
         <v>4551</v>
       </c>
     </row>
-    <row r="2613" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="2613" spans="1:7" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2613" s="2" t="s">
         <v>4466</v>
       </c>
@@ -66241,7 +66241,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="2620" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="2620" spans="1:7" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2620" s="2" t="s">
         <v>4466</v>
       </c>
@@ -68625,7 +68625,7 @@
         <v>4772</v>
       </c>
     </row>
-    <row r="2756" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2756" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2756" s="2" t="s">
         <v>4740</v>
       </c>
@@ -68633,7 +68633,7 @@
         <v>4773</v>
       </c>
     </row>
-    <row r="2757" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2757" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2757" s="2" t="s">
         <v>4740</v>
       </c>
@@ -68641,7 +68641,7 @@
         <v>4774</v>
       </c>
     </row>
-    <row r="2758" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2758" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2758" s="2" t="s">
         <v>4740</v>
       </c>
@@ -68649,7 +68649,7 @@
         <v>4775</v>
       </c>
     </row>
-    <row r="2759" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2759" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2759" s="2" t="s">
         <v>4740</v>
       </c>
@@ -68807,7 +68807,7 @@
         <v>4795</v>
       </c>
     </row>
-    <row r="2769" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2769" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2769" s="2" t="s">
         <v>4777</v>
       </c>
@@ -68815,7 +68815,7 @@
         <v>4796</v>
       </c>
     </row>
-    <row r="2770" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2770" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2770" s="2" t="s">
         <v>4777</v>
       </c>
@@ -68968,181 +68968,50 @@
   <autoFilter ref="A1:G2779" xr:uid="{E6C39AF7-C976-4B10-BEB7-8A96010CD96F}">
     <filterColumn colId="1">
       <filters>
-        <filter val="ActualPowerLimits (array)"/>
-        <filter val="ActualPowerLimits[{item}].PowerLimitInWatts"/>
-        <filter val="ActualPowerLimits[{item}].ZoneNumber"/>
-        <filter val="AutoPowerOn (Automatic Power-On)"/>
-        <filter val="BackupPowerSourceStatus"/>
-        <filter val="CalibrationData.ThrottlePeakPower_x000a_CalibrationData.ThrottlePeakPower.Percent_000"/>
-        <filter val="CalibrationData.ThrottlePeakPower.Percent_005"/>
-        <filter val="CalibrationData.ThrottlePeakPower.Percent_010"/>
-        <filter val="CalibrationData.ThrottlePeakPower.Percent_015"/>
-        <filter val="CalibrationData.ThrottlePeakPower.Percent_020"/>
-        <filter val="CalibrationData.ThrottlePeakPower.Percent_025"/>
-        <filter val="CalibrationData.ThrottlePeakPower.Percent_030"/>
-        <filter val="CalibrationData.ThrottlePeakPower.Percent_035"/>
-        <filter val="CalibrationData.ThrottlePeakPower.Percent_040"/>
-        <filter val="CalibrationData.ThrottlePeakPower.Percent_045"/>
-        <filter val="CalibrationData.ThrottlePeakPower.Percent_050"/>
-        <filter val="CalibrationData.ThrottlePeakPower.Percent_055"/>
-        <filter val="CalibrationData.ThrottlePeakPower.Percent_060"/>
-        <filter val="CalibrationData.ThrottlePeakPower.Percent_065"/>
-        <filter val="CalibrationData.ThrottlePeakPower.Percent_070"/>
-        <filter val="CalibrationData.ThrottlePeakPower.Percent_075"/>
-        <filter val="CalibrationData.ThrottlePeakPower.Percent_080"/>
-        <filter val="CalibrationData.ThrottlePeakPower.Percent_085"/>
-        <filter val="CalibrationData.ThrottlePeakPower.Percent_090"/>
-        <filter val="CalibrationData.ThrottlePeakPower.Percent_095"/>
-        <filter val="CalibrationData.ThrottlePeakPower.Percent_100"/>
-        <filter val="Characteristics.SupportsPowerManagementEventSignal"/>
-        <filter val="CollabPowerControl (Collaborative Power Control)"/>
-        <filter val="DynamicPowerCapping (Dynamic Power Capping Functionality)"/>
-        <filter val="EmbNicAspm (PCIe Power Management(ASPM))"/>
-        <filter val="EmbSas1Aspm (PCIe Power Management(ASPM))"/>
-        <filter val="EmbSata1Aspm (SATA Power Management(SALP))"/>
-        <filter val="EmbSata2Aspm (SATA Power Management(SALP))"/>
-        <filter val="FlexLom1Aspm (PCIe Power Management(ASPM))"/>
-        <filter val="HpeComputerSystemExt.PowerButton"/>
-        <filter val="HpeServerAccPowerCalibration.Calibrate"/>
-        <filter val="HpeServerAccPowerLimit.ConfigurePowerLimit"/>
-        <filter val="HpeServerAccPowerZone.ConfigureZone"/>
-        <filter val="IntelUpiPowerManagement (Intel UPI Link Power Management)"/>
-        <filter val="LicenseFeatures.PowerReg"/>
-        <filter val="MinProcIdlePkgState (Minimum Processor Idle Power Package C-State)"/>
-        <filter val="MinProcIdlePower (Minimum Processor Idle Power Core C-State)"/>
-        <filter val="MixedPowerSupplyReporting (Mixed Power Supply Reporting)"/>
-        <filter val="Oem.Hpe.AggregateHealthStatus.PowerSupplies_x000a_Oem.Hpe.AggregateHealthStatus.PowerSupplies.PowerSuppliesMismatch"/>
-        <filter val="Oem.Hpe.AggregateHealthStatus.PowerSupplies.Status"/>
-        <filter val="Oem.Hpe.AggregateHealthStatus.PowerSupplyRedundancy"/>
-        <filter val="Oem.Hpe.BbuPowerSupply"/>
-        <filter val="Oem.Hpe.CurrentPowerOnTimeSeconds"/>
-        <filter val="Oem.Hpe.Firmware.PowerManagementController_x000a_Oem.Hpe.Firmware.PowerManagementController.Current_x000a_Oem.Hpe.Firmware.PowerManagementController.Current.VersionString"/>
-        <filter val="Oem.Hpe.Firmware.PowerManagementControllerBootloader_x000a_Oem.Hpe.Firmware.PowerManagementControllerBootloader.Current_x000a_Oem.Hpe.Firmware.PowerManagementControllerBootloader.Current.Family"/>
-        <filter val="Oem.Hpe.Firmware.PowerManagementControllerBootloader.Current.VersionString"/>
-        <filter val="Oem.Hpe.HasCpuPowerMetering"/>
-        <filter val="Oem.Hpe.HasDimmPowerMetering"/>
-        <filter val="Oem.Hpe.HasGpuPowerMetering"/>
-        <filter val="Oem.Hpe.HasPowerMetering"/>
-        <filter val="Oem.Hpe.PowerAlertMode_x000a_Oem.Hpe.PowerAlertMode.Activated"/>
-        <filter val="Oem.Hpe.PowerAlertMode.AlertPowerWatts"/>
-        <filter val="Oem.Hpe.PowerAllocationLimit"/>
-        <filter val="Oem.Hpe.PowerAutoOn"/>
-        <filter val="Oem.Hpe.PowerOnDelay"/>
-        <filter val="Oem.Hpe.PowerOnHours"/>
-        <filter val="Oem.Hpe.PowerOnMinutes"/>
-        <filter val="Oem.Hpe.PowerRegulatorMode"/>
-        <filter val="Oem.Hpe.PowerRegulatorModesSupported (array)"/>
-        <filter val="Oem.Hpe.Privileges.VirtualPowerAndResetPriv"/>
-        <filter val="Oem.Hpe.RelatedPowerBackupUnitBays (array)"/>
-        <filter val="Oem.Hpe.SNMPPowerThresholdAlert_x000a_Oem.Hpe.SNMPPowerThresholdAlert.DurationInMin"/>
-        <filter val="Oem.Hpe.SNMPPowerThresholdAlert.ThresholdWatts"/>
-        <filter val="Oem.Hpe.SNMPPowerThresholdAlert.Trigger"/>
-        <filter val="Oem.Hpe.SystemUsage.CPU0Power"/>
-        <filter val="Oem.Hpe.SystemUsage.CPU1Power"/>
-        <filter val="Oem.Hpe.SystemUsage.CPU2Power"/>
-        <filter val="Oem.Hpe.SystemUsage.CPU3Power"/>
-        <filter val="PciSlot1Aspm (PCIe Power Management(ASPM))"/>
-        <filter val="PciSlot2Aspm (PCIe Power Management(ASPM))"/>
-        <filter val="PciSlot3Aspm (PCIe Power Management(ASPM))"/>
-        <filter val="PciSlot4Aspm (PCIe Power Management(ASPM))"/>
-        <filter val="PciSlot5Aspm (PCIe Power Management(ASPM))"/>
-        <filter val="PciSlot6Aspm (PCIe Power Management(ASPM))"/>
-        <filter val="PciSlot7Aspm (PCIe Power Management(ASPM))"/>
-        <filter val="PciSlot8Aspm (PCIe Power Management(ASPM))"/>
-        <filter val="PersistentMemBackupPowerPolicy (Persistent Memory Backup Power Policy)"/>
-        <filter val="Power"/>
-        <filter val="PowerButton (Power Button Mode)"/>
-        <filter val="PowerControl (array)"/>
-        <filter val="PowerControl[{item}].@odata.id"/>
-        <filter val="PowerControl[{item}].MemberId"/>
-        <filter val="PowerControl[{item}].PowerAllocatedWatts"/>
-        <filter val="PowerControl[{item}].PowerAvailableWatts"/>
-        <filter val="PowerControl[{item}].PowerCapacityWatts"/>
-        <filter val="PowerControl[{item}].PowerConsumedWatts"/>
-        <filter val="PowerControl[{item}].PowerLimit_x000a_PowerControl[{item}].PowerLimit.CorrectionInMs"/>
-        <filter val="PowerControl[{item}].PowerLimit.LimitException"/>
-        <filter val="PowerControl[{item}].PowerLimit.LimitInWatts"/>
-        <filter val="PowerControl[{item}].PowerMetrics_x000a_PowerControl[{item}].PowerMetrics.AverageConsumedWatts"/>
-        <filter val="PowerControl[{item}].PowerMetrics.IntervalInMin"/>
-        <filter val="PowerControl[{item}].PowerMetrics.MaxConsumedWatts"/>
-        <filter val="PowerControl[{item}].PowerMetrics.MinConsumedWatts"/>
-        <filter val="PowerControl[{item}].PowerRequestedWatts"/>
-        <filter val="PowerControl[{item}].RelatedItem (array)"/>
-        <filter val="PowerControl[{item}].Status"/>
-        <filter val="PowerDetail (array)"/>
-        <filter val="PowerDetail[{item}].AmbTemp"/>
-        <filter val="PowerDetail[{item}].Average"/>
-        <filter val="PowerDetail[{item}].Cap"/>
-        <filter val="PowerDetail[{item}].CpuAvgFreq"/>
-        <filter val="PowerDetail[{item}].CpuCapLim"/>
-        <filter val="PowerDetail[{item}].CpuMax"/>
-        <filter val="PowerDetail[{item}].CpuPwrSavLim"/>
-        <filter val="PowerDetail[{item}].CpuUtil"/>
-        <filter val="PowerDetail[{item}].CpuWatts"/>
-        <filter val="PowerDetail[{item}].DimmWatts"/>
-        <filter val="PowerDetail[{item}].GpuWatts"/>
-        <filter val="PowerDetail[{item}].Minimum"/>
-        <filter val="PowerDetail[{item}].Peak"/>
-        <filter val="PowerDetail[{item}].PrMode"/>
-        <filter val="PowerDetail[{item}].PunCap"/>
-        <filter val="PowerDetail[{item}].Time"/>
-        <filter val="PowerDetail[{item}].UnachCap"/>
-        <filter val="PowerLimitRanges (array)"/>
-        <filter val="PowerLimitRanges[{item}].MaximumPowerLimit"/>
-        <filter val="PowerLimitRanges[{item}].MinimumPowerLimit"/>
-        <filter val="PowerLimitRanges[{item}].ZoneNumber"/>
-        <filter val="PowerLimits (array)"/>
-        <filter val="PowerLimits[{item}].PowerLimitInWatts"/>
-        <filter val="PowerLimits[{item}].ZoneNumber"/>
-        <filter val="PowerModeAfterReboot"/>
-        <filter val="PowerModeConfigured"/>
-        <filter val="PowerModeWarningChangedDrive"/>
-        <filter val="PowerModeWarningChangedMode"/>
-        <filter val="PowerModeWarningReboot"/>
-        <filter val="PowerModeWarningTemperature"/>
-        <filter val="PowerOnDelay (Power-On Delay)"/>
-        <filter val="PowerOnHours"/>
-        <filter val="PowerRegulationEnabled"/>
-        <filter val="PowerRegulator (Power Regulator)"/>
-        <filter val="PowerRegulatorMode"/>
-        <filter val="PowerState"/>
-        <filter val="PowerSupplies (array)"/>
-        <filter val="PowerSupplies[{item}].@odata.id"/>
-        <filter val="PowerSupplies[{item}].FirmwareVersion"/>
-        <filter val="PowerSupplies[{item}].LastPowerOutputWatts"/>
-        <filter val="PowerSupplies[{item}].LineInputVoltage"/>
-        <filter val="PowerSupplies[{item}].LineInputVoltageType"/>
-        <filter val="PowerSupplies[{item}].Manufacturer"/>
-        <filter val="PowerSupplies[{item}].MemberId"/>
-        <filter val="PowerSupplies[{item}].Model"/>
-        <filter val="PowerSupplies[{item}].Oem.Hpe.AveragePowerOutputWatts"/>
-        <filter val="PowerSupplies[{item}].Oem.Hpe.BayNumber"/>
-        <filter val="PowerSupplies[{item}].Oem.Hpe.HotplugCapable"/>
-        <filter val="PowerSupplies[{item}].Oem.Hpe.iPDU_x000a_PowerSupplies[{item}].Oem.Hpe.iPDU.IPAddress"/>
-        <filter val="PowerSupplies[{item}].Oem.Hpe.iPDU.iPDUStatus_x000a_PowerSupplies[{item}].Oem.Hpe.iPDU.iPDUStatus.State"/>
-        <filter val="PowerSupplies[{item}].Oem.Hpe.iPDU.MacAddress"/>
-        <filter val="PowerSupplies[{item}].Oem.Hpe.iPDU.Model"/>
-        <filter val="PowerSupplies[{item}].Oem.Hpe.iPDU.SerialNumber"/>
-        <filter val="PowerSupplies[{item}].Oem.Hpe.iPDUCapable"/>
-        <filter val="PowerSupplies[{item}].Oem.Hpe.MaxPowerOutputWatts"/>
-        <filter val="PowerSupplies[{item}].Oem.Hpe.Mismatched"/>
-        <filter val="PowerSupplies[{item}].Oem.Hpe.PowerSupplyStatus_x000a_PowerSupplies[{item}].Oem.Hpe.PowerSupplyStatus.State"/>
-        <filter val="PowerSupplies[{item}].PartNumber"/>
-        <filter val="PowerSupplies[{item}].PowerCapacityWatts"/>
-        <filter val="PowerSupplies[{item}].PowerSupplyType"/>
-        <filter val="PowerSupplies[{item}].Redundancy"/>
-        <filter val="PowerSupplies[{item}].RelatedItem (array)"/>
-        <filter val="PowerSupplies[{item}].SerialNumber"/>
-        <filter val="PowerSupplies[{item}].SparePartNumber"/>
-        <filter val="PowerSupplies[{item}].Status"/>
-        <filter val="Privileges.VirtualPowerAndResetPriv"/>
-        <filter val="RedundantPowerSupply (Redundant Power Supply Mode)"/>
-        <filter val="SSOsettings.AdminPrivilege.VirtualPowerAndResetPriv"/>
-        <filter val="SSOsettings.OperatorPrivilege.VirtualPowerAndResetPriv"/>
-        <filter val="SSOsettings.UserPrivilege.VirtualPowerAndResetPriv"/>
-        <filter val="SupportedPowerModes (array)"/>
-        <filter val="SurvivalPowerMode"/>
-        <filter val="WriteCacheWithoutBackupPowerEnabled"/>
+        <filter val="HpeiLO.ClearHotKeys"/>
+        <filter val="HpeiLO.ClearRestApiState"/>
+        <filter val="HpeiLO.DisableiLOFunctionality"/>
+        <filter val="HpeiLO.RequestFirmwareAndOsRecovery"/>
+        <filter val="HpeiLO.ResetToFactoryDefaults"/>
+        <filter val="HpeiLOAccountService.ImportKerberosKeytab"/>
+        <filter val="HpeiLOActiveHealthSystem.ClearLog"/>
+        <filter val="HpeiLOActiveHealthSystem.LogAmplifierData"/>
+        <filter val="HpeiLOBackupFile.Restore"/>
+        <filter val="HpeiLOManagerNetworkService.SendTestAlertMail"/>
+        <filter val="HpeiLOManagerNetworkService.SendTestSyslog"/>
+        <filter val="HpeiLOSnmpService.SendSNMPTestAlert"/>
+        <filter val="HpeiLOSSO.DeleteAllSSORecords"/>
+        <filter val="HpeiLOSSO.DeleteSSORecordbyNumber"/>
+        <filter val="HpeiLOSSO.ImportCertificate"/>
+        <filter val="HpeiLOSSO.ImportDNSName"/>
+        <filter val="HpeiLOUpdateServiceExt.AddFromUri"/>
+        <filter val="HpeiLOUpdateServiceExt.DeleteInstallSets"/>
+        <filter val="HpeiLOUpdateServiceExt.DeleteMaintenanceWindows"/>
+        <filter val="HpeiLOUpdateServiceExt.DeleteUnlockedComponents"/>
+        <filter val="HpeiLOVirtualMedia.EjectVirtualMedia"/>
+        <filter val="HpeiLOVirtualMedia.InsertVirtualMedia"/>
+        <filter val="iLOSelfTestResults[{item}].Notes"/>
+        <filter val="iLOSelfTestResults[{item}].SelfTestName"/>
+        <filter val="iLOSelfTestResults[{item}].Status"/>
+        <filter val="Oem.Hpe.FederationConfig.iLOFederationManagement"/>
+        <filter val="Oem.Hpe.iLOFunctionalityEnabled"/>
+        <filter val="Oem.Hpe.iLOFunctionalityRequired"/>
+        <filter val="Oem.Hpe.iLOIPduringPOSTEnabled"/>
+        <filter val="Oem.Hpe.iLORBSUEnabled"/>
+        <filter val="Oem.Hpe.iLOSelfTestResults (array)"/>
+        <filter val="Oem.Hpe.iLOServicePort_x000a_Oem.Hpe.iLOServicePort.MassStorageAuthenticationRequired"/>
+        <filter val="Oem.Hpe.iLOServicePort.iLOServicePortEnabled"/>
+        <filter val="Oem.Hpe.iLOServicePort.USBEthernetAdaptersEnabled"/>
+        <filter val="Oem.Hpe.iLOServicePort.USBFlashDriveEnabled"/>
+        <filter val="Oem.Hpe.Privileges.iLOConfigPriv"/>
+        <filter val="Oem.Hpe.RequiredLoginForiLORBSU"/>
+        <filter val="Oem.Hpe.SystemROMAndiLOEraseComponentStatus_x000a_Oem.Hpe.SystemROMAndiLOEraseComponentStatus.BIOSSettingsEraseStatus"/>
+        <filter val="Oem.Hpe.SystemROMAndiLOEraseComponentStatus.iLOSettingsEraseStatus"/>
+        <filter val="Oem.Hpe.SystemROMAndiLOEraseStatus"/>
+        <filter val="Privileges.iLOConfigPriv"/>
+        <filter val="SSOsettings.AdminPrivilege.iLOConfigPriv"/>
+        <filter val="SSOsettings.OperatorPrivilege.iLOConfigPriv"/>
+        <filter val="SSOsettings.UserPrivilege.iLOConfigPriv"/>
       </filters>
     </filterColumn>
   </autoFilter>
